--- a/Sensor Box Version 2/data.xlsx
+++ b/Sensor Box Version 2/data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Noahv\OneDrive\Documenten\School\Design_n_contruction\Wing Design\Sensors\Sensor Box Version 2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{618F9275-320C-4196-8DC4-17365AE54489}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77B6B51B-CC56-44B7-AF78-4E7AA04D433F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -4505,7 +4505,4605 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="nl-NL"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="nl-NL"/>
+              <a:t>Test Data</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="nl-NL"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$E$3:$E$691</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="689"/>
+                <c:pt idx="0">
+                  <c:v>152.5996917742246</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>150.67328067809669</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>149.71007513003269</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>151.63648622616071</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>151.63648622616071</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>149.71007513003269</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>150.67328067809669</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>148.74686958196881</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>151.63648622616071</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>152.5996917742246</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>152.5996917742246</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>153.56289732228859</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>150.67328067809669</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>153.56289732228859</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>150.67328067809669</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>153.56289732228859</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>152.5996917742246</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>153.56289732228859</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>151.63648622616071</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>152.5996917742246</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>150.67328067809669</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>151.63648622616071</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>150.67328067809669</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>150.67328067809669</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>150.67328067809669</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>150.67328067809669</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>151.63648622616071</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>153.56289732228859</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>154.5261028703525</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>153.56289732228859</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>152.5996917742246</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>154.5261028703525</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>152.5996917742246</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>154.5261028703525</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>150.67328067809669</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>156.45251396648041</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>152.5996917742246</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>153.56289732228859</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>154.5261028703525</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>154.5261028703525</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>154.5261028703525</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>153.56289732228859</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>153.56289732228859</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>154.5261028703525</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>155.4893084184165</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>154.5261028703525</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>155.4893084184165</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>155.4893084184165</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>151.63648622616071</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>153.56289732228859</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>155.4893084184165</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>160.30533615873631</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>156.45251396648041</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>158.3789250626084</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>157.41571951454441</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>156.45251396648041</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>158.3789250626084</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>160.30533615873631</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>160.30533615873631</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>158.3789250626084</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>156.45251396648041</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>159.34213061067231</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>158.3789250626084</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>158.3789250626084</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>157.41571951454441</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>158.3789250626084</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>155.4893084184165</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>157.41571951454441</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>159.34213061067231</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>159.34213061067231</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>160.30533615873631</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>157.41571951454441</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>159.34213061067231</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>159.34213061067231</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>160.30533615873631</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>161.26854170680019</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>164.1581583509921</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>161.26854170680019</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>163.19495280292821</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>161.26854170680019</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>160.30533615873631</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>163.19495280292821</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>161.26854170680019</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>166.08456944712</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>160.30533615873631</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>167.047774995184</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>165.12136389905609</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>164.1581583509921</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>164.1581583509921</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>164.1581583509921</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>162.23174725486419</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>166.08456944712</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>165.12136389905609</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>164.1581583509921</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>165.12136389905609</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>164.1581583509921</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>163.19495280292821</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>171.86380273550381</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>166.08456944712</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>166.08456944712</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>166.08456944712</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>166.08456944712</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>168.97418609131191</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>166.08456944712</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>169.93739163937579</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>168.01098054324791</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>169.93739163937579</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>170.90059718743981</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>167.047774995184</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>168.97418609131191</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>171.86380273550381</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>169.93739163937579</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>171.86380273550381</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>168.97418609131191</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>168.97418609131191</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>176.67983047582351</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>177.6430360238875</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>173.79021383163169</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>173.79021383163169</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>172.82700828356769</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>174.7534193796956</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>174.7534193796956</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>174.7534193796956</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>173.79021383163169</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>175.7166249277596</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>173.79021383163169</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>177.6430360238875</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>177.6430360238875</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>177.6430360238875</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>181.49585821614329</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>174.7534193796956</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>178.60624157195139</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>177.6430360238875</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>181.49585821614329</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>179.56944712001541</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>183.4222693122712</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>179.56944712001541</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>181.49585821614329</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>180.53265266807941</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>178.60624157195139</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>182.45906376420729</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>181.49585821614329</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>182.45906376420729</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>182.45906376420729</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>183.4222693122712</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>183.4222693122712</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>184.38547486033519</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>181.49585821614329</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>183.4222693122712</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>181.49585821614329</c:v>
+                </c:pt>
+                <c:pt idx="150">
+                  <c:v>182.45906376420729</c:v>
+                </c:pt>
+                <c:pt idx="151">
+                  <c:v>181.49585821614329</c:v>
+                </c:pt>
+                <c:pt idx="152">
+                  <c:v>180.53265266807941</c:v>
+                </c:pt>
+                <c:pt idx="153">
+                  <c:v>178.60624157195139</c:v>
+                </c:pt>
+                <c:pt idx="154">
+                  <c:v>182.45906376420729</c:v>
+                </c:pt>
+                <c:pt idx="155">
+                  <c:v>183.4222693122712</c:v>
+                </c:pt>
+                <c:pt idx="156">
+                  <c:v>183.4222693122712</c:v>
+                </c:pt>
+                <c:pt idx="157">
+                  <c:v>184.38547486033519</c:v>
+                </c:pt>
+                <c:pt idx="158">
+                  <c:v>180.53265266807941</c:v>
+                </c:pt>
+                <c:pt idx="159">
+                  <c:v>179.56944712001541</c:v>
+                </c:pt>
+                <c:pt idx="160">
+                  <c:v>180.53265266807941</c:v>
+                </c:pt>
+                <c:pt idx="161">
+                  <c:v>182.45906376420729</c:v>
+                </c:pt>
+                <c:pt idx="162">
+                  <c:v>179.56944712001541</c:v>
+                </c:pt>
+                <c:pt idx="163">
+                  <c:v>181.49585821614329</c:v>
+                </c:pt>
+                <c:pt idx="164">
+                  <c:v>180.53265266807941</c:v>
+                </c:pt>
+                <c:pt idx="165">
+                  <c:v>180.53265266807941</c:v>
+                </c:pt>
+                <c:pt idx="166">
+                  <c:v>180.53265266807941</c:v>
+                </c:pt>
+                <c:pt idx="167">
+                  <c:v>183.4222693122712</c:v>
+                </c:pt>
+                <c:pt idx="168">
+                  <c:v>182.45906376420729</c:v>
+                </c:pt>
+                <c:pt idx="169">
+                  <c:v>182.45906376420729</c:v>
+                </c:pt>
+                <c:pt idx="170">
+                  <c:v>180.53265266807941</c:v>
+                </c:pt>
+                <c:pt idx="171">
+                  <c:v>180.53265266807941</c:v>
+                </c:pt>
+                <c:pt idx="172">
+                  <c:v>181.49585821614329</c:v>
+                </c:pt>
+                <c:pt idx="173">
+                  <c:v>182.45906376420729</c:v>
+                </c:pt>
+                <c:pt idx="174">
+                  <c:v>184.38547486033519</c:v>
+                </c:pt>
+                <c:pt idx="175">
+                  <c:v>183.4222693122712</c:v>
+                </c:pt>
+                <c:pt idx="176">
+                  <c:v>185.34868040839919</c:v>
+                </c:pt>
+                <c:pt idx="177">
+                  <c:v>186.3118859564631</c:v>
+                </c:pt>
+                <c:pt idx="178">
+                  <c:v>183.4222693122712</c:v>
+                </c:pt>
+                <c:pt idx="179">
+                  <c:v>184.38547486033519</c:v>
+                </c:pt>
+                <c:pt idx="180">
+                  <c:v>185.34868040839919</c:v>
+                </c:pt>
+                <c:pt idx="181">
+                  <c:v>184.38547486033519</c:v>
+                </c:pt>
+                <c:pt idx="182">
+                  <c:v>182.45906376420729</c:v>
+                </c:pt>
+                <c:pt idx="183">
+                  <c:v>183.4222693122712</c:v>
+                </c:pt>
+                <c:pt idx="184">
+                  <c:v>186.3118859564631</c:v>
+                </c:pt>
+                <c:pt idx="185">
+                  <c:v>183.4222693122712</c:v>
+                </c:pt>
+                <c:pt idx="186">
+                  <c:v>186.3118859564631</c:v>
+                </c:pt>
+                <c:pt idx="187">
+                  <c:v>188.23829705259101</c:v>
+                </c:pt>
+                <c:pt idx="188">
+                  <c:v>185.34868040839919</c:v>
+                </c:pt>
+                <c:pt idx="189">
+                  <c:v>184.38547486033519</c:v>
+                </c:pt>
+                <c:pt idx="190">
+                  <c:v>188.23829705259101</c:v>
+                </c:pt>
+                <c:pt idx="191">
+                  <c:v>189.201502600655</c:v>
+                </c:pt>
+                <c:pt idx="192">
+                  <c:v>188.23829705259101</c:v>
+                </c:pt>
+                <c:pt idx="193">
+                  <c:v>190.16470814871889</c:v>
+                </c:pt>
+                <c:pt idx="194">
+                  <c:v>193.05432479291079</c:v>
+                </c:pt>
+                <c:pt idx="195">
+                  <c:v>185.34868040839919</c:v>
+                </c:pt>
+                <c:pt idx="196">
+                  <c:v>186.3118859564631</c:v>
+                </c:pt>
+                <c:pt idx="197">
+                  <c:v>186.3118859564631</c:v>
+                </c:pt>
+                <c:pt idx="198">
+                  <c:v>186.3118859564631</c:v>
+                </c:pt>
+                <c:pt idx="199">
+                  <c:v>187.2750915045271</c:v>
+                </c:pt>
+                <c:pt idx="200">
+                  <c:v>189.201502600655</c:v>
+                </c:pt>
+                <c:pt idx="201">
+                  <c:v>186.3118859564631</c:v>
+                </c:pt>
+                <c:pt idx="202">
+                  <c:v>186.3118859564631</c:v>
+                </c:pt>
+                <c:pt idx="203">
+                  <c:v>187.2750915045271</c:v>
+                </c:pt>
+                <c:pt idx="204">
+                  <c:v>191.12791369678291</c:v>
+                </c:pt>
+                <c:pt idx="205">
+                  <c:v>189.201502600655</c:v>
+                </c:pt>
+                <c:pt idx="206">
+                  <c:v>185.34868040839919</c:v>
+                </c:pt>
+                <c:pt idx="207">
+                  <c:v>186.3118859564631</c:v>
+                </c:pt>
+                <c:pt idx="208">
+                  <c:v>187.2750915045271</c:v>
+                </c:pt>
+                <c:pt idx="209">
+                  <c:v>187.2750915045271</c:v>
+                </c:pt>
+                <c:pt idx="210">
+                  <c:v>185.34868040839919</c:v>
+                </c:pt>
+                <c:pt idx="211">
+                  <c:v>188.23829705259101</c:v>
+                </c:pt>
+                <c:pt idx="212">
+                  <c:v>186.3118859564631</c:v>
+                </c:pt>
+                <c:pt idx="213">
+                  <c:v>185.34868040839919</c:v>
+                </c:pt>
+                <c:pt idx="214">
+                  <c:v>188.23829705259101</c:v>
+                </c:pt>
+                <c:pt idx="215">
+                  <c:v>189.201502600655</c:v>
+                </c:pt>
+                <c:pt idx="216">
+                  <c:v>192.09111924484691</c:v>
+                </c:pt>
+                <c:pt idx="217">
+                  <c:v>189.201502600655</c:v>
+                </c:pt>
+                <c:pt idx="218">
+                  <c:v>190.16470814871889</c:v>
+                </c:pt>
+                <c:pt idx="219">
+                  <c:v>187.2750915045271</c:v>
+                </c:pt>
+                <c:pt idx="220">
+                  <c:v>192.09111924484691</c:v>
+                </c:pt>
+                <c:pt idx="221">
+                  <c:v>189.201502600655</c:v>
+                </c:pt>
+                <c:pt idx="222">
+                  <c:v>185.34868040839919</c:v>
+                </c:pt>
+                <c:pt idx="223">
+                  <c:v>189.201502600655</c:v>
+                </c:pt>
+                <c:pt idx="224">
+                  <c:v>190.16470814871889</c:v>
+                </c:pt>
+                <c:pt idx="225">
+                  <c:v>192.09111924484691</c:v>
+                </c:pt>
+                <c:pt idx="226">
+                  <c:v>191.12791369678291</c:v>
+                </c:pt>
+                <c:pt idx="227">
+                  <c:v>193.05432479291079</c:v>
+                </c:pt>
+                <c:pt idx="228">
+                  <c:v>192.09111924484691</c:v>
+                </c:pt>
+                <c:pt idx="229">
+                  <c:v>191.12791369678291</c:v>
+                </c:pt>
+                <c:pt idx="230">
+                  <c:v>190.16470814871889</c:v>
+                </c:pt>
+                <c:pt idx="231">
+                  <c:v>191.12791369678291</c:v>
+                </c:pt>
+                <c:pt idx="232">
+                  <c:v>193.05432479291079</c:v>
+                </c:pt>
+                <c:pt idx="233">
+                  <c:v>194.9807358890387</c:v>
+                </c:pt>
+                <c:pt idx="234">
+                  <c:v>190.16470814871889</c:v>
+                </c:pt>
+                <c:pt idx="235">
+                  <c:v>191.12791369678291</c:v>
+                </c:pt>
+                <c:pt idx="236">
+                  <c:v>193.05432479291079</c:v>
+                </c:pt>
+                <c:pt idx="237">
+                  <c:v>194.9807358890387</c:v>
+                </c:pt>
+                <c:pt idx="238">
+                  <c:v>194.9807358890387</c:v>
+                </c:pt>
+                <c:pt idx="239">
+                  <c:v>197.8703525332306</c:v>
+                </c:pt>
+                <c:pt idx="240">
+                  <c:v>191.12791369678291</c:v>
+                </c:pt>
+                <c:pt idx="241">
+                  <c:v>193.05432479291079</c:v>
+                </c:pt>
+                <c:pt idx="242">
+                  <c:v>194.9807358890387</c:v>
+                </c:pt>
+                <c:pt idx="243">
+                  <c:v>196.90714698516661</c:v>
+                </c:pt>
+                <c:pt idx="244">
+                  <c:v>195.94394143710269</c:v>
+                </c:pt>
+                <c:pt idx="245">
+                  <c:v>194.9807358890387</c:v>
+                </c:pt>
+                <c:pt idx="246">
+                  <c:v>197.8703525332306</c:v>
+                </c:pt>
+                <c:pt idx="247">
+                  <c:v>197.8703525332306</c:v>
+                </c:pt>
+                <c:pt idx="248">
+                  <c:v>197.8703525332306</c:v>
+                </c:pt>
+                <c:pt idx="249">
+                  <c:v>199.79676362935851</c:v>
+                </c:pt>
+                <c:pt idx="250">
+                  <c:v>199.79676362935851</c:v>
+                </c:pt>
+                <c:pt idx="251">
+                  <c:v>196.90714698516661</c:v>
+                </c:pt>
+                <c:pt idx="252">
+                  <c:v>200.75996917742239</c:v>
+                </c:pt>
+                <c:pt idx="253">
+                  <c:v>198.83355808129451</c:v>
+                </c:pt>
+                <c:pt idx="254">
+                  <c:v>201.72317472548639</c:v>
+                </c:pt>
+                <c:pt idx="255">
+                  <c:v>198.83355808129451</c:v>
+                </c:pt>
+                <c:pt idx="256">
+                  <c:v>199.79676362935851</c:v>
+                </c:pt>
+                <c:pt idx="257">
+                  <c:v>198.83355808129451</c:v>
+                </c:pt>
+                <c:pt idx="258">
+                  <c:v>197.8703525332306</c:v>
+                </c:pt>
+                <c:pt idx="259">
+                  <c:v>200.75996917742239</c:v>
+                </c:pt>
+                <c:pt idx="260">
+                  <c:v>203.64958582161429</c:v>
+                </c:pt>
+                <c:pt idx="261">
+                  <c:v>200.75996917742239</c:v>
+                </c:pt>
+                <c:pt idx="262">
+                  <c:v>197.8703525332306</c:v>
+                </c:pt>
+                <c:pt idx="263">
+                  <c:v>199.79676362935851</c:v>
+                </c:pt>
+                <c:pt idx="264">
+                  <c:v>201.72317472548639</c:v>
+                </c:pt>
+                <c:pt idx="265">
+                  <c:v>202.68638027355041</c:v>
+                </c:pt>
+                <c:pt idx="266">
+                  <c:v>205.57599691774229</c:v>
+                </c:pt>
+                <c:pt idx="267">
+                  <c:v>203.64958582161429</c:v>
+                </c:pt>
+                <c:pt idx="268">
+                  <c:v>205.57599691774229</c:v>
+                </c:pt>
+                <c:pt idx="269">
+                  <c:v>202.68638027355041</c:v>
+                </c:pt>
+                <c:pt idx="270">
+                  <c:v>202.68638027355041</c:v>
+                </c:pt>
+                <c:pt idx="271">
+                  <c:v>202.68638027355041</c:v>
+                </c:pt>
+                <c:pt idx="272">
+                  <c:v>203.64958582161429</c:v>
+                </c:pt>
+                <c:pt idx="273">
+                  <c:v>200.75996917742239</c:v>
+                </c:pt>
+                <c:pt idx="274">
+                  <c:v>204.61279136967829</c:v>
+                </c:pt>
+                <c:pt idx="275">
+                  <c:v>204.61279136967829</c:v>
+                </c:pt>
+                <c:pt idx="276">
+                  <c:v>203.64958582161429</c:v>
+                </c:pt>
+                <c:pt idx="277">
+                  <c:v>205.57599691774229</c:v>
+                </c:pt>
+                <c:pt idx="278">
+                  <c:v>205.57599691774229</c:v>
+                </c:pt>
+                <c:pt idx="279">
+                  <c:v>203.64958582161429</c:v>
+                </c:pt>
+                <c:pt idx="280">
+                  <c:v>208.46561356193411</c:v>
+                </c:pt>
+                <c:pt idx="281">
+                  <c:v>206.5392024658062</c:v>
+                </c:pt>
+                <c:pt idx="282">
+                  <c:v>208.46561356193411</c:v>
+                </c:pt>
+                <c:pt idx="283">
+                  <c:v>206.5392024658062</c:v>
+                </c:pt>
+                <c:pt idx="284">
+                  <c:v>206.5392024658062</c:v>
+                </c:pt>
+                <c:pt idx="285">
+                  <c:v>207.50240801387019</c:v>
+                </c:pt>
+                <c:pt idx="286">
+                  <c:v>207.50240801387019</c:v>
+                </c:pt>
+                <c:pt idx="287">
+                  <c:v>210.39202465806201</c:v>
+                </c:pt>
+                <c:pt idx="288">
+                  <c:v>210.39202465806201</c:v>
+                </c:pt>
+                <c:pt idx="289">
+                  <c:v>209.4288191099981</c:v>
+                </c:pt>
+                <c:pt idx="290">
+                  <c:v>208.46561356193411</c:v>
+                </c:pt>
+                <c:pt idx="291">
+                  <c:v>208.46561356193411</c:v>
+                </c:pt>
+                <c:pt idx="292">
+                  <c:v>207.50240801387019</c:v>
+                </c:pt>
+                <c:pt idx="293">
+                  <c:v>210.39202465806201</c:v>
+                </c:pt>
+                <c:pt idx="294">
+                  <c:v>213.28164130225389</c:v>
+                </c:pt>
+                <c:pt idx="295">
+                  <c:v>212.31843575418989</c:v>
+                </c:pt>
+                <c:pt idx="296">
+                  <c:v>212.31843575418989</c:v>
+                </c:pt>
+                <c:pt idx="297">
+                  <c:v>213.28164130225389</c:v>
+                </c:pt>
+                <c:pt idx="298">
+                  <c:v>211.35523020612601</c:v>
+                </c:pt>
+                <c:pt idx="299">
+                  <c:v>212.31843575418989</c:v>
+                </c:pt>
+                <c:pt idx="300">
+                  <c:v>213.28164130225389</c:v>
+                </c:pt>
+                <c:pt idx="301">
+                  <c:v>214.24484685031791</c:v>
+                </c:pt>
+                <c:pt idx="302">
+                  <c:v>213.28164130225389</c:v>
+                </c:pt>
+                <c:pt idx="303">
+                  <c:v>213.28164130225389</c:v>
+                </c:pt>
+                <c:pt idx="304">
+                  <c:v>212.31843575418989</c:v>
+                </c:pt>
+                <c:pt idx="305">
+                  <c:v>213.28164130225389</c:v>
+                </c:pt>
+                <c:pt idx="306">
+                  <c:v>215.2080523983818</c:v>
+                </c:pt>
+                <c:pt idx="307">
+                  <c:v>216.17125794644579</c:v>
+                </c:pt>
+                <c:pt idx="308">
+                  <c:v>213.28164130225389</c:v>
+                </c:pt>
+                <c:pt idx="309">
+                  <c:v>215.2080523983818</c:v>
+                </c:pt>
+                <c:pt idx="310">
+                  <c:v>215.2080523983818</c:v>
+                </c:pt>
+                <c:pt idx="311">
+                  <c:v>214.24484685031791</c:v>
+                </c:pt>
+                <c:pt idx="312">
+                  <c:v>212.31843575418989</c:v>
+                </c:pt>
+                <c:pt idx="313">
+                  <c:v>214.24484685031791</c:v>
+                </c:pt>
+                <c:pt idx="314">
+                  <c:v>217.1344634945097</c:v>
+                </c:pt>
+                <c:pt idx="315">
+                  <c:v>214.24484685031791</c:v>
+                </c:pt>
+                <c:pt idx="316">
+                  <c:v>216.17125794644579</c:v>
+                </c:pt>
+                <c:pt idx="317">
+                  <c:v>216.17125794644579</c:v>
+                </c:pt>
+                <c:pt idx="318">
+                  <c:v>219.06087459063761</c:v>
+                </c:pt>
+                <c:pt idx="319">
+                  <c:v>219.06087459063761</c:v>
+                </c:pt>
+                <c:pt idx="320">
+                  <c:v>218.0976690425737</c:v>
+                </c:pt>
+                <c:pt idx="321">
+                  <c:v>221.95049123482951</c:v>
+                </c:pt>
+                <c:pt idx="322">
+                  <c:v>220.02408013870161</c:v>
+                </c:pt>
+                <c:pt idx="323">
+                  <c:v>220.02408013870161</c:v>
+                </c:pt>
+                <c:pt idx="324">
+                  <c:v>220.02408013870161</c:v>
+                </c:pt>
+                <c:pt idx="325">
+                  <c:v>220.02408013870161</c:v>
+                </c:pt>
+                <c:pt idx="326">
+                  <c:v>220.02408013870161</c:v>
+                </c:pt>
+                <c:pt idx="327">
+                  <c:v>221.95049123482951</c:v>
+                </c:pt>
+                <c:pt idx="328">
+                  <c:v>214.24484685031791</c:v>
+                </c:pt>
+                <c:pt idx="329">
+                  <c:v>217.1344634945097</c:v>
+                </c:pt>
+                <c:pt idx="330">
+                  <c:v>218.0976690425737</c:v>
+                </c:pt>
+                <c:pt idx="331">
+                  <c:v>221.95049123482951</c:v>
+                </c:pt>
+                <c:pt idx="332">
+                  <c:v>219.06087459063761</c:v>
+                </c:pt>
+                <c:pt idx="333">
+                  <c:v>218.0976690425737</c:v>
+                </c:pt>
+                <c:pt idx="334">
+                  <c:v>216.17125794644579</c:v>
+                </c:pt>
+                <c:pt idx="335">
+                  <c:v>220.02408013870161</c:v>
+                </c:pt>
+                <c:pt idx="336">
+                  <c:v>220.02408013870161</c:v>
+                </c:pt>
+                <c:pt idx="337">
+                  <c:v>220.98728568676549</c:v>
+                </c:pt>
+                <c:pt idx="338">
+                  <c:v>220.02408013870161</c:v>
+                </c:pt>
+                <c:pt idx="339">
+                  <c:v>220.02408013870161</c:v>
+                </c:pt>
+                <c:pt idx="340">
+                  <c:v>222.91369678289351</c:v>
+                </c:pt>
+                <c:pt idx="341">
+                  <c:v>218.0976690425737</c:v>
+                </c:pt>
+                <c:pt idx="342">
+                  <c:v>219.06087459063761</c:v>
+                </c:pt>
+                <c:pt idx="343">
+                  <c:v>220.98728568676549</c:v>
+                </c:pt>
+                <c:pt idx="344">
+                  <c:v>220.98728568676549</c:v>
+                </c:pt>
+                <c:pt idx="345">
+                  <c:v>218.0976690425737</c:v>
+                </c:pt>
+                <c:pt idx="346">
+                  <c:v>218.0976690425737</c:v>
+                </c:pt>
+                <c:pt idx="347">
+                  <c:v>219.06087459063761</c:v>
+                </c:pt>
+                <c:pt idx="348">
+                  <c:v>220.02408013870161</c:v>
+                </c:pt>
+                <c:pt idx="349">
+                  <c:v>219.06087459063761</c:v>
+                </c:pt>
+                <c:pt idx="350">
+                  <c:v>220.98728568676549</c:v>
+                </c:pt>
+                <c:pt idx="351">
+                  <c:v>220.98728568676549</c:v>
+                </c:pt>
+                <c:pt idx="352">
+                  <c:v>226.7665189751493</c:v>
+                </c:pt>
+                <c:pt idx="353">
+                  <c:v>222.91369678289351</c:v>
+                </c:pt>
+                <c:pt idx="354">
+                  <c:v>222.91369678289351</c:v>
+                </c:pt>
+                <c:pt idx="355">
+                  <c:v>220.98728568676549</c:v>
+                </c:pt>
+                <c:pt idx="356">
+                  <c:v>222.91369678289351</c:v>
+                </c:pt>
+                <c:pt idx="357">
+                  <c:v>221.95049123482951</c:v>
+                </c:pt>
+                <c:pt idx="358">
+                  <c:v>225.8033134270853</c:v>
+                </c:pt>
+                <c:pt idx="359">
+                  <c:v>222.91369678289351</c:v>
+                </c:pt>
+                <c:pt idx="360">
+                  <c:v>223.87690233095739</c:v>
+                </c:pt>
+                <c:pt idx="361">
+                  <c:v>229.6561356193412</c:v>
+                </c:pt>
+                <c:pt idx="362">
+                  <c:v>230.61934116740511</c:v>
+                </c:pt>
+                <c:pt idx="363">
+                  <c:v>222.91369678289351</c:v>
+                </c:pt>
+                <c:pt idx="364">
+                  <c:v>226.7665189751493</c:v>
+                </c:pt>
+                <c:pt idx="365">
+                  <c:v>224.84010787902139</c:v>
+                </c:pt>
+                <c:pt idx="366">
+                  <c:v>226.7665189751493</c:v>
+                </c:pt>
+                <c:pt idx="367">
+                  <c:v>227.72972452321329</c:v>
+                </c:pt>
+                <c:pt idx="368">
+                  <c:v>227.72972452321329</c:v>
+                </c:pt>
+                <c:pt idx="369">
+                  <c:v>225.8033134270853</c:v>
+                </c:pt>
+                <c:pt idx="370">
+                  <c:v>230.61934116740511</c:v>
+                </c:pt>
+                <c:pt idx="371">
+                  <c:v>229.6561356193412</c:v>
+                </c:pt>
+                <c:pt idx="372">
+                  <c:v>229.6561356193412</c:v>
+                </c:pt>
+                <c:pt idx="373">
+                  <c:v>229.6561356193412</c:v>
+                </c:pt>
+                <c:pt idx="374">
+                  <c:v>230.61934116740511</c:v>
+                </c:pt>
+                <c:pt idx="375">
+                  <c:v>231.58254671546911</c:v>
+                </c:pt>
+                <c:pt idx="376">
+                  <c:v>229.6561356193412</c:v>
+                </c:pt>
+                <c:pt idx="377">
+                  <c:v>229.6561356193412</c:v>
+                </c:pt>
+                <c:pt idx="378">
+                  <c:v>233.50895781159701</c:v>
+                </c:pt>
+                <c:pt idx="379">
+                  <c:v>232.54575226353299</c:v>
+                </c:pt>
+                <c:pt idx="380">
+                  <c:v>233.50895781159701</c:v>
+                </c:pt>
+                <c:pt idx="381">
+                  <c:v>230.61934116740511</c:v>
+                </c:pt>
+                <c:pt idx="382">
+                  <c:v>231.58254671546911</c:v>
+                </c:pt>
+                <c:pt idx="383">
+                  <c:v>228.6929300712772</c:v>
+                </c:pt>
+                <c:pt idx="384">
+                  <c:v>230.61934116740511</c:v>
+                </c:pt>
+                <c:pt idx="385">
+                  <c:v>232.54575226353299</c:v>
+                </c:pt>
+                <c:pt idx="386">
+                  <c:v>234.47216335966101</c:v>
+                </c:pt>
+                <c:pt idx="387">
+                  <c:v>229.6561356193412</c:v>
+                </c:pt>
+                <c:pt idx="388">
+                  <c:v>234.47216335966101</c:v>
+                </c:pt>
+                <c:pt idx="389">
+                  <c:v>233.50895781159701</c:v>
+                </c:pt>
+                <c:pt idx="390">
+                  <c:v>237.3617800038528</c:v>
+                </c:pt>
+                <c:pt idx="391">
+                  <c:v>231.58254671546911</c:v>
+                </c:pt>
+                <c:pt idx="392">
+                  <c:v>236.39857445578889</c:v>
+                </c:pt>
+                <c:pt idx="393">
+                  <c:v>235.43536890772489</c:v>
+                </c:pt>
+                <c:pt idx="394">
+                  <c:v>238.3249855519168</c:v>
+                </c:pt>
+                <c:pt idx="395">
+                  <c:v>238.3249855519168</c:v>
+                </c:pt>
+                <c:pt idx="396">
+                  <c:v>238.3249855519168</c:v>
+                </c:pt>
+                <c:pt idx="397">
+                  <c:v>237.3617800038528</c:v>
+                </c:pt>
+                <c:pt idx="398">
+                  <c:v>237.3617800038528</c:v>
+                </c:pt>
+                <c:pt idx="399">
+                  <c:v>235.43536890772489</c:v>
+                </c:pt>
+                <c:pt idx="400">
+                  <c:v>238.3249855519168</c:v>
+                </c:pt>
+                <c:pt idx="401">
+                  <c:v>238.3249855519168</c:v>
+                </c:pt>
+                <c:pt idx="402">
+                  <c:v>241.21460219610859</c:v>
+                </c:pt>
+                <c:pt idx="403">
+                  <c:v>240.2513966480447</c:v>
+                </c:pt>
+                <c:pt idx="404">
+                  <c:v>240.2513966480447</c:v>
+                </c:pt>
+                <c:pt idx="405">
+                  <c:v>241.21460219610859</c:v>
+                </c:pt>
+                <c:pt idx="406">
+                  <c:v>240.2513966480447</c:v>
+                </c:pt>
+                <c:pt idx="407">
+                  <c:v>239.28819109998071</c:v>
+                </c:pt>
+                <c:pt idx="408">
+                  <c:v>242.17780774417261</c:v>
+                </c:pt>
+                <c:pt idx="409">
+                  <c:v>239.28819109998071</c:v>
+                </c:pt>
+                <c:pt idx="410">
+                  <c:v>240.2513966480447</c:v>
+                </c:pt>
+                <c:pt idx="411">
+                  <c:v>241.21460219610859</c:v>
+                </c:pt>
+                <c:pt idx="412">
+                  <c:v>241.21460219610859</c:v>
+                </c:pt>
+                <c:pt idx="413">
+                  <c:v>244.10421884030049</c:v>
+                </c:pt>
+                <c:pt idx="414">
+                  <c:v>242.17780774417261</c:v>
+                </c:pt>
+                <c:pt idx="415">
+                  <c:v>242.17780774417261</c:v>
+                </c:pt>
+                <c:pt idx="416">
+                  <c:v>241.21460219610859</c:v>
+                </c:pt>
+                <c:pt idx="417">
+                  <c:v>244.10421884030049</c:v>
+                </c:pt>
+                <c:pt idx="418">
+                  <c:v>239.28819109998071</c:v>
+                </c:pt>
+                <c:pt idx="419">
+                  <c:v>246.99383548449239</c:v>
+                </c:pt>
+                <c:pt idx="420">
+                  <c:v>243.14101329223661</c:v>
+                </c:pt>
+                <c:pt idx="421">
+                  <c:v>244.10421884030049</c:v>
+                </c:pt>
+                <c:pt idx="422">
+                  <c:v>244.10421884030049</c:v>
+                </c:pt>
+                <c:pt idx="423">
+                  <c:v>242.17780774417261</c:v>
+                </c:pt>
+                <c:pt idx="424">
+                  <c:v>243.14101329223661</c:v>
+                </c:pt>
+                <c:pt idx="425">
+                  <c:v>246.0306299364284</c:v>
+                </c:pt>
+                <c:pt idx="426">
+                  <c:v>247.9570410325563</c:v>
+                </c:pt>
+                <c:pt idx="427">
+                  <c:v>243.14101329223661</c:v>
+                </c:pt>
+                <c:pt idx="428">
+                  <c:v>243.14101329223661</c:v>
+                </c:pt>
+                <c:pt idx="429">
+                  <c:v>242.17780774417261</c:v>
+                </c:pt>
+                <c:pt idx="430">
+                  <c:v>244.10421884030049</c:v>
+                </c:pt>
+                <c:pt idx="431">
+                  <c:v>246.99383548449239</c:v>
+                </c:pt>
+                <c:pt idx="432">
+                  <c:v>244.10421884030049</c:v>
+                </c:pt>
+                <c:pt idx="433">
+                  <c:v>246.0306299364284</c:v>
+                </c:pt>
+                <c:pt idx="434">
+                  <c:v>246.0306299364284</c:v>
+                </c:pt>
+                <c:pt idx="435">
+                  <c:v>246.0306299364284</c:v>
+                </c:pt>
+                <c:pt idx="436">
+                  <c:v>249.88345212868421</c:v>
+                </c:pt>
+                <c:pt idx="437">
+                  <c:v>247.9570410325563</c:v>
+                </c:pt>
+                <c:pt idx="438">
+                  <c:v>246.99383548449239</c:v>
+                </c:pt>
+                <c:pt idx="439">
+                  <c:v>246.99383548449239</c:v>
+                </c:pt>
+                <c:pt idx="440">
+                  <c:v>253.73627432094011</c:v>
+                </c:pt>
+                <c:pt idx="441">
+                  <c:v>246.99383548449239</c:v>
+                </c:pt>
+                <c:pt idx="442">
+                  <c:v>246.0306299364284</c:v>
+                </c:pt>
+                <c:pt idx="443">
+                  <c:v>251.80986322481209</c:v>
+                </c:pt>
+                <c:pt idx="444">
+                  <c:v>246.99383548449239</c:v>
+                </c:pt>
+                <c:pt idx="445">
+                  <c:v>250.84665767674821</c:v>
+                </c:pt>
+                <c:pt idx="446">
+                  <c:v>253.73627432094011</c:v>
+                </c:pt>
+                <c:pt idx="447">
+                  <c:v>246.0306299364284</c:v>
+                </c:pt>
+                <c:pt idx="448">
+                  <c:v>251.80986322481209</c:v>
+                </c:pt>
+                <c:pt idx="449">
+                  <c:v>252.77306877287609</c:v>
+                </c:pt>
+                <c:pt idx="450">
+                  <c:v>247.9570410325563</c:v>
+                </c:pt>
+                <c:pt idx="451">
+                  <c:v>252.77306877287609</c:v>
+                </c:pt>
+                <c:pt idx="452">
+                  <c:v>257.5890965131959</c:v>
+                </c:pt>
+                <c:pt idx="453">
+                  <c:v>252.77306877287609</c:v>
+                </c:pt>
+                <c:pt idx="454">
+                  <c:v>253.73627432094011</c:v>
+                </c:pt>
+                <c:pt idx="455">
+                  <c:v>250.84665767674821</c:v>
+                </c:pt>
+                <c:pt idx="456">
+                  <c:v>249.88345212868421</c:v>
+                </c:pt>
+                <c:pt idx="457">
+                  <c:v>253.73627432094011</c:v>
+                </c:pt>
+                <c:pt idx="458">
+                  <c:v>247.9570410325563</c:v>
+                </c:pt>
+                <c:pt idx="459">
+                  <c:v>256.62589096513187</c:v>
+                </c:pt>
+                <c:pt idx="460">
+                  <c:v>255.66268541706799</c:v>
+                </c:pt>
+                <c:pt idx="461">
+                  <c:v>252.77306877287609</c:v>
+                </c:pt>
+                <c:pt idx="462">
+                  <c:v>255.66268541706799</c:v>
+                </c:pt>
+                <c:pt idx="463">
+                  <c:v>257.5890965131959</c:v>
+                </c:pt>
+                <c:pt idx="464">
+                  <c:v>256.62589096513187</c:v>
+                </c:pt>
+                <c:pt idx="465">
+                  <c:v>250.84665767674821</c:v>
+                </c:pt>
+                <c:pt idx="466">
+                  <c:v>256.62589096513187</c:v>
+                </c:pt>
+                <c:pt idx="467">
+                  <c:v>252.77306877287609</c:v>
+                </c:pt>
+                <c:pt idx="468">
+                  <c:v>255.66268541706799</c:v>
+                </c:pt>
+                <c:pt idx="469">
+                  <c:v>256.62589096513187</c:v>
+                </c:pt>
+                <c:pt idx="470">
+                  <c:v>258.55230206125992</c:v>
+                </c:pt>
+                <c:pt idx="471">
+                  <c:v>257.5890965131959</c:v>
+                </c:pt>
+                <c:pt idx="472">
+                  <c:v>255.66268541706799</c:v>
+                </c:pt>
+                <c:pt idx="473">
+                  <c:v>255.66268541706799</c:v>
+                </c:pt>
+                <c:pt idx="474">
+                  <c:v>257.5890965131959</c:v>
+                </c:pt>
+                <c:pt idx="475">
+                  <c:v>259.51550760932378</c:v>
+                </c:pt>
+                <c:pt idx="476">
+                  <c:v>255.66268541706799</c:v>
+                </c:pt>
+                <c:pt idx="477">
+                  <c:v>258.55230206125992</c:v>
+                </c:pt>
+                <c:pt idx="478">
+                  <c:v>257.5890965131959</c:v>
+                </c:pt>
+                <c:pt idx="479">
+                  <c:v>257.5890965131959</c:v>
+                </c:pt>
+                <c:pt idx="480">
+                  <c:v>257.5890965131959</c:v>
+                </c:pt>
+                <c:pt idx="481">
+                  <c:v>257.5890965131959</c:v>
+                </c:pt>
+                <c:pt idx="482">
+                  <c:v>257.5890965131959</c:v>
+                </c:pt>
+                <c:pt idx="483">
+                  <c:v>262.40512425351568</c:v>
+                </c:pt>
+                <c:pt idx="484">
+                  <c:v>260.47871315738769</c:v>
+                </c:pt>
+                <c:pt idx="485">
+                  <c:v>255.66268541706799</c:v>
+                </c:pt>
+                <c:pt idx="486">
+                  <c:v>259.51550760932378</c:v>
+                </c:pt>
+                <c:pt idx="487">
+                  <c:v>258.55230206125992</c:v>
+                </c:pt>
+                <c:pt idx="488">
+                  <c:v>258.55230206125992</c:v>
+                </c:pt>
+                <c:pt idx="489">
+                  <c:v>258.55230206125992</c:v>
+                </c:pt>
+                <c:pt idx="490">
+                  <c:v>262.40512425351568</c:v>
+                </c:pt>
+                <c:pt idx="491">
+                  <c:v>255.66268541706799</c:v>
+                </c:pt>
+                <c:pt idx="492">
+                  <c:v>265.29474089770753</c:v>
+                </c:pt>
+                <c:pt idx="493">
+                  <c:v>262.40512425351568</c:v>
+                </c:pt>
+                <c:pt idx="494">
+                  <c:v>260.47871315738769</c:v>
+                </c:pt>
+                <c:pt idx="495">
+                  <c:v>260.47871315738769</c:v>
+                </c:pt>
+                <c:pt idx="496">
+                  <c:v>266.25794644577149</c:v>
+                </c:pt>
+                <c:pt idx="497">
+                  <c:v>261.44191870545171</c:v>
+                </c:pt>
+                <c:pt idx="498">
+                  <c:v>262.40512425351568</c:v>
+                </c:pt>
+                <c:pt idx="499">
+                  <c:v>262.40512425351568</c:v>
+                </c:pt>
+                <c:pt idx="500">
+                  <c:v>266.25794644577149</c:v>
+                </c:pt>
+                <c:pt idx="501">
+                  <c:v>264.33153534964362</c:v>
+                </c:pt>
+                <c:pt idx="502">
+                  <c:v>265.29474089770753</c:v>
+                </c:pt>
+                <c:pt idx="503">
+                  <c:v>265.29474089770753</c:v>
+                </c:pt>
+                <c:pt idx="504">
+                  <c:v>268.18435754189937</c:v>
+                </c:pt>
+                <c:pt idx="505">
+                  <c:v>262.40512425351568</c:v>
+                </c:pt>
+                <c:pt idx="506">
+                  <c:v>267.22115199383552</c:v>
+                </c:pt>
+                <c:pt idx="507">
+                  <c:v>267.22115199383552</c:v>
+                </c:pt>
+                <c:pt idx="508">
+                  <c:v>268.18435754189937</c:v>
+                </c:pt>
+                <c:pt idx="509">
+                  <c:v>266.25794644577149</c:v>
+                </c:pt>
+                <c:pt idx="510">
+                  <c:v>269.14756308996328</c:v>
+                </c:pt>
+                <c:pt idx="511">
+                  <c:v>269.14756308996328</c:v>
+                </c:pt>
+                <c:pt idx="512">
+                  <c:v>269.14756308996328</c:v>
+                </c:pt>
+                <c:pt idx="513">
+                  <c:v>268.18435754189937</c:v>
+                </c:pt>
+                <c:pt idx="514">
+                  <c:v>268.18435754189937</c:v>
+                </c:pt>
+                <c:pt idx="515">
+                  <c:v>268.18435754189937</c:v>
+                </c:pt>
+                <c:pt idx="516">
+                  <c:v>267.22115199383552</c:v>
+                </c:pt>
+                <c:pt idx="517">
+                  <c:v>269.14756308996328</c:v>
+                </c:pt>
+                <c:pt idx="518">
+                  <c:v>270.11076863802731</c:v>
+                </c:pt>
+                <c:pt idx="519">
+                  <c:v>268.18435754189937</c:v>
+                </c:pt>
+                <c:pt idx="520">
+                  <c:v>273.96359083028318</c:v>
+                </c:pt>
+                <c:pt idx="521">
+                  <c:v>270.11076863802731</c:v>
+                </c:pt>
+                <c:pt idx="522">
+                  <c:v>273.96359083028318</c:v>
+                </c:pt>
+                <c:pt idx="523">
+                  <c:v>273.96359083028318</c:v>
+                </c:pt>
+                <c:pt idx="524">
+                  <c:v>268.18435754189937</c:v>
+                </c:pt>
+                <c:pt idx="525">
+                  <c:v>267.22115199383552</c:v>
+                </c:pt>
+                <c:pt idx="526">
+                  <c:v>274.92679637834709</c:v>
+                </c:pt>
+                <c:pt idx="527">
+                  <c:v>273.96359083028318</c:v>
+                </c:pt>
+                <c:pt idx="528">
+                  <c:v>271.07397418609128</c:v>
+                </c:pt>
+                <c:pt idx="529">
+                  <c:v>272.03717973415519</c:v>
+                </c:pt>
+                <c:pt idx="530">
+                  <c:v>275.89000192641112</c:v>
+                </c:pt>
+                <c:pt idx="531">
+                  <c:v>271.07397418609128</c:v>
+                </c:pt>
+                <c:pt idx="532">
+                  <c:v>270.11076863802731</c:v>
+                </c:pt>
+                <c:pt idx="533">
+                  <c:v>264.33153534964362</c:v>
+                </c:pt>
+                <c:pt idx="534">
+                  <c:v>270.11076863802731</c:v>
+                </c:pt>
+                <c:pt idx="535">
+                  <c:v>270.11076863802731</c:v>
+                </c:pt>
+                <c:pt idx="536">
+                  <c:v>268.18435754189937</c:v>
+                </c:pt>
+                <c:pt idx="537">
+                  <c:v>271.07397418609128</c:v>
+                </c:pt>
+                <c:pt idx="538">
+                  <c:v>271.07397418609128</c:v>
+                </c:pt>
+                <c:pt idx="539">
+                  <c:v>273.00038528221921</c:v>
+                </c:pt>
+                <c:pt idx="540">
+                  <c:v>269.14756308996328</c:v>
+                </c:pt>
+                <c:pt idx="541">
+                  <c:v>274.92679637834709</c:v>
+                </c:pt>
+                <c:pt idx="542">
+                  <c:v>270.11076863802731</c:v>
+                </c:pt>
+                <c:pt idx="543">
+                  <c:v>275.89000192641112</c:v>
+                </c:pt>
+                <c:pt idx="544">
+                  <c:v>272.03717973415519</c:v>
+                </c:pt>
+                <c:pt idx="545">
+                  <c:v>273.00038528221921</c:v>
+                </c:pt>
+                <c:pt idx="546">
+                  <c:v>276.85320747447503</c:v>
+                </c:pt>
+                <c:pt idx="547">
+                  <c:v>273.96359083028318</c:v>
+                </c:pt>
+                <c:pt idx="548">
+                  <c:v>277.816413022539</c:v>
+                </c:pt>
+                <c:pt idx="549">
+                  <c:v>273.96359083028318</c:v>
+                </c:pt>
+                <c:pt idx="550">
+                  <c:v>275.89000192641112</c:v>
+                </c:pt>
+                <c:pt idx="551">
+                  <c:v>279.74282411866687</c:v>
+                </c:pt>
+                <c:pt idx="552">
+                  <c:v>273.96359083028318</c:v>
+                </c:pt>
+                <c:pt idx="553">
+                  <c:v>273.96359083028318</c:v>
+                </c:pt>
+                <c:pt idx="554">
+                  <c:v>279.74282411866687</c:v>
+                </c:pt>
+                <c:pt idx="555">
+                  <c:v>278.77961857060302</c:v>
+                </c:pt>
+                <c:pt idx="556">
+                  <c:v>281.66923521479481</c:v>
+                </c:pt>
+                <c:pt idx="557">
+                  <c:v>276.85320747447503</c:v>
+                </c:pt>
+                <c:pt idx="558">
+                  <c:v>271.07397418609128</c:v>
+                </c:pt>
+                <c:pt idx="559">
+                  <c:v>279.74282411866687</c:v>
+                </c:pt>
+                <c:pt idx="560">
+                  <c:v>273.00038528221921</c:v>
+                </c:pt>
+                <c:pt idx="561">
+                  <c:v>277.816413022539</c:v>
+                </c:pt>
+                <c:pt idx="562">
+                  <c:v>273.00038528221921</c:v>
+                </c:pt>
+                <c:pt idx="563">
+                  <c:v>274.92679637834709</c:v>
+                </c:pt>
+                <c:pt idx="564">
+                  <c:v>277.816413022539</c:v>
+                </c:pt>
+                <c:pt idx="565">
+                  <c:v>276.85320747447503</c:v>
+                </c:pt>
+                <c:pt idx="566">
+                  <c:v>279.74282411866687</c:v>
+                </c:pt>
+                <c:pt idx="567">
+                  <c:v>274.92679637834709</c:v>
+                </c:pt>
+                <c:pt idx="568">
+                  <c:v>280.70602966673079</c:v>
+                </c:pt>
+                <c:pt idx="569">
+                  <c:v>279.74282411866687</c:v>
+                </c:pt>
+                <c:pt idx="570">
+                  <c:v>274.92679637834709</c:v>
+                </c:pt>
+                <c:pt idx="571">
+                  <c:v>279.74282411866687</c:v>
+                </c:pt>
+                <c:pt idx="572">
+                  <c:v>273.96359083028318</c:v>
+                </c:pt>
+                <c:pt idx="573">
+                  <c:v>278.77961857060302</c:v>
+                </c:pt>
+                <c:pt idx="574">
+                  <c:v>279.74282411866687</c:v>
+                </c:pt>
+                <c:pt idx="575">
+                  <c:v>277.816413022539</c:v>
+                </c:pt>
+                <c:pt idx="576">
+                  <c:v>274.92679637834709</c:v>
+                </c:pt>
+                <c:pt idx="577">
+                  <c:v>278.77961857060302</c:v>
+                </c:pt>
+                <c:pt idx="578">
+                  <c:v>287.44846850317862</c:v>
+                </c:pt>
+                <c:pt idx="579">
+                  <c:v>278.77961857060302</c:v>
+                </c:pt>
+                <c:pt idx="580">
+                  <c:v>285.52205740705062</c:v>
+                </c:pt>
+                <c:pt idx="581">
+                  <c:v>278.77961857060302</c:v>
+                </c:pt>
+                <c:pt idx="582">
+                  <c:v>280.70602966673079</c:v>
+                </c:pt>
+                <c:pt idx="583">
+                  <c:v>280.70602966673079</c:v>
+                </c:pt>
+                <c:pt idx="584">
+                  <c:v>284.55885185898671</c:v>
+                </c:pt>
+                <c:pt idx="585">
+                  <c:v>281.66923521479481</c:v>
+                </c:pt>
+                <c:pt idx="586">
+                  <c:v>278.77961857060302</c:v>
+                </c:pt>
+                <c:pt idx="587">
+                  <c:v>291.30129069543437</c:v>
+                </c:pt>
+                <c:pt idx="588">
+                  <c:v>281.66923521479481</c:v>
+                </c:pt>
+                <c:pt idx="589">
+                  <c:v>288.41167405124253</c:v>
+                </c:pt>
+                <c:pt idx="590">
+                  <c:v>286.48526295511459</c:v>
+                </c:pt>
+                <c:pt idx="591">
+                  <c:v>280.70602966673079</c:v>
+                </c:pt>
+                <c:pt idx="592">
+                  <c:v>284.55885185898671</c:v>
+                </c:pt>
+                <c:pt idx="593">
+                  <c:v>284.55885185898671</c:v>
+                </c:pt>
+                <c:pt idx="594">
+                  <c:v>286.48526295511459</c:v>
+                </c:pt>
+                <c:pt idx="595">
+                  <c:v>283.59564631092269</c:v>
+                </c:pt>
+                <c:pt idx="596">
+                  <c:v>287.44846850317862</c:v>
+                </c:pt>
+                <c:pt idx="597">
+                  <c:v>283.59564631092269</c:v>
+                </c:pt>
+                <c:pt idx="598">
+                  <c:v>291.30129069543437</c:v>
+                </c:pt>
+                <c:pt idx="599">
+                  <c:v>289.37487959930638</c:v>
+                </c:pt>
+                <c:pt idx="600">
+                  <c:v>294.19090733962622</c:v>
+                </c:pt>
+                <c:pt idx="601">
+                  <c:v>284.55885185898671</c:v>
+                </c:pt>
+                <c:pt idx="602">
+                  <c:v>284.55885185898671</c:v>
+                </c:pt>
+                <c:pt idx="603">
+                  <c:v>288.41167405124253</c:v>
+                </c:pt>
+                <c:pt idx="604">
+                  <c:v>286.48526295511459</c:v>
+                </c:pt>
+                <c:pt idx="605">
+                  <c:v>286.48526295511459</c:v>
+                </c:pt>
+                <c:pt idx="606">
+                  <c:v>288.41167405124253</c:v>
+                </c:pt>
+                <c:pt idx="607">
+                  <c:v>285.52205740705062</c:v>
+                </c:pt>
+                <c:pt idx="608">
+                  <c:v>291.30129069543437</c:v>
+                </c:pt>
+                <c:pt idx="609">
+                  <c:v>287.44846850317862</c:v>
+                </c:pt>
+                <c:pt idx="610">
+                  <c:v>299.006935079946</c:v>
+                </c:pt>
+                <c:pt idx="611">
+                  <c:v>290.33808514737041</c:v>
+                </c:pt>
+                <c:pt idx="612">
+                  <c:v>294.19090733962622</c:v>
+                </c:pt>
+                <c:pt idx="613">
+                  <c:v>285.52205740705062</c:v>
+                </c:pt>
+                <c:pt idx="614">
+                  <c:v>298.04372953188209</c:v>
+                </c:pt>
+                <c:pt idx="615">
+                  <c:v>288.41167405124253</c:v>
+                </c:pt>
+                <c:pt idx="616">
+                  <c:v>292.26449624349829</c:v>
+                </c:pt>
+                <c:pt idx="617">
+                  <c:v>292.26449624349829</c:v>
+                </c:pt>
+                <c:pt idx="618">
+                  <c:v>285.52205740705062</c:v>
+                </c:pt>
+                <c:pt idx="619">
+                  <c:v>290.33808514737041</c:v>
+                </c:pt>
+                <c:pt idx="620">
+                  <c:v>288.41167405124253</c:v>
+                </c:pt>
+                <c:pt idx="621">
+                  <c:v>288.41167405124253</c:v>
+                </c:pt>
+                <c:pt idx="622">
+                  <c:v>294.19090733962622</c:v>
+                </c:pt>
+                <c:pt idx="623">
+                  <c:v>302.85975727220188</c:v>
+                </c:pt>
+                <c:pt idx="624">
+                  <c:v>298.04372953188209</c:v>
+                </c:pt>
+                <c:pt idx="625">
+                  <c:v>297.08052398381813</c:v>
+                </c:pt>
+                <c:pt idx="626">
+                  <c:v>296.11731843575421</c:v>
+                </c:pt>
+                <c:pt idx="627">
+                  <c:v>304.78616836832981</c:v>
+                </c:pt>
+                <c:pt idx="628">
+                  <c:v>307.67578501252171</c:v>
+                </c:pt>
+                <c:pt idx="629">
+                  <c:v>296.11731843575421</c:v>
+                </c:pt>
+                <c:pt idx="630">
+                  <c:v>299.97014062800997</c:v>
+                </c:pt>
+                <c:pt idx="631">
+                  <c:v>299.006935079946</c:v>
+                </c:pt>
+                <c:pt idx="632">
+                  <c:v>302.85975727220188</c:v>
+                </c:pt>
+                <c:pt idx="633">
+                  <c:v>305.74937391639372</c:v>
+                </c:pt>
+                <c:pt idx="634">
+                  <c:v>297.08052398381813</c:v>
+                </c:pt>
+                <c:pt idx="635">
+                  <c:v>297.08052398381813</c:v>
+                </c:pt>
+                <c:pt idx="636">
+                  <c:v>303.82296282026579</c:v>
+                </c:pt>
+                <c:pt idx="637">
+                  <c:v>296.11731843575421</c:v>
+                </c:pt>
+                <c:pt idx="638">
+                  <c:v>301.89655172413791</c:v>
+                </c:pt>
+                <c:pt idx="639">
+                  <c:v>297.08052398381813</c:v>
+                </c:pt>
+                <c:pt idx="640">
+                  <c:v>299.97014062800997</c:v>
+                </c:pt>
+                <c:pt idx="641">
+                  <c:v>303.82296282026579</c:v>
+                </c:pt>
+                <c:pt idx="642">
+                  <c:v>301.89655172413791</c:v>
+                </c:pt>
+                <c:pt idx="643">
+                  <c:v>304.78616836832981</c:v>
+                </c:pt>
+                <c:pt idx="644">
+                  <c:v>299.006935079946</c:v>
+                </c:pt>
+                <c:pt idx="645">
+                  <c:v>299.97014062800997</c:v>
+                </c:pt>
+                <c:pt idx="646">
+                  <c:v>306.71257946445769</c:v>
+                </c:pt>
+                <c:pt idx="647">
+                  <c:v>299.97014062800997</c:v>
+                </c:pt>
+                <c:pt idx="648">
+                  <c:v>302.85975727220188</c:v>
+                </c:pt>
+                <c:pt idx="649">
+                  <c:v>304.78616836832981</c:v>
+                </c:pt>
+                <c:pt idx="650">
+                  <c:v>296.11731843575421</c:v>
+                </c:pt>
+                <c:pt idx="651">
+                  <c:v>311.52860720477747</c:v>
+                </c:pt>
+                <c:pt idx="652">
+                  <c:v>309.60219610864948</c:v>
+                </c:pt>
+                <c:pt idx="653">
+                  <c:v>305.74937391639372</c:v>
+                </c:pt>
+                <c:pt idx="654">
+                  <c:v>316.34463494509731</c:v>
+                </c:pt>
+                <c:pt idx="655">
+                  <c:v>310.5654016567135</c:v>
+                </c:pt>
+                <c:pt idx="656">
+                  <c:v>312.49181275284138</c:v>
+                </c:pt>
+                <c:pt idx="657">
+                  <c:v>304.78616836832981</c:v>
+                </c:pt>
+                <c:pt idx="658">
+                  <c:v>307.67578501252171</c:v>
+                </c:pt>
+                <c:pt idx="659">
+                  <c:v>306.71257946445769</c:v>
+                </c:pt>
+                <c:pt idx="660">
+                  <c:v>309.60219610864948</c:v>
+                </c:pt>
+                <c:pt idx="661">
+                  <c:v>308.63899056058563</c:v>
+                </c:pt>
+                <c:pt idx="662">
+                  <c:v>306.71257946445769</c:v>
+                </c:pt>
+                <c:pt idx="663">
+                  <c:v>304.78616836832981</c:v>
+                </c:pt>
+                <c:pt idx="664">
+                  <c:v>314.41822384896932</c:v>
+                </c:pt>
+                <c:pt idx="665">
+                  <c:v>303.82296282026579</c:v>
+                </c:pt>
+                <c:pt idx="666">
+                  <c:v>304.78616836832981</c:v>
+                </c:pt>
+                <c:pt idx="667">
+                  <c:v>306.71257946445769</c:v>
+                </c:pt>
+                <c:pt idx="668">
+                  <c:v>306.71257946445769</c:v>
+                </c:pt>
+                <c:pt idx="669">
+                  <c:v>307.67578501252171</c:v>
+                </c:pt>
+                <c:pt idx="670">
+                  <c:v>307.67578501252171</c:v>
+                </c:pt>
+                <c:pt idx="671">
+                  <c:v>305.74937391639372</c:v>
+                </c:pt>
+                <c:pt idx="672">
+                  <c:v>308.63899056058563</c:v>
+                </c:pt>
+                <c:pt idx="673">
+                  <c:v>305.74937391639372</c:v>
+                </c:pt>
+                <c:pt idx="674">
+                  <c:v>306.71257946445769</c:v>
+                </c:pt>
+                <c:pt idx="675">
+                  <c:v>307.67578501252171</c:v>
+                </c:pt>
+                <c:pt idx="676">
+                  <c:v>301.89655172413791</c:v>
+                </c:pt>
+                <c:pt idx="677">
+                  <c:v>311.52860720477747</c:v>
+                </c:pt>
+                <c:pt idx="678">
+                  <c:v>305.74937391639372</c:v>
+                </c:pt>
+                <c:pt idx="679">
+                  <c:v>314.41822384896932</c:v>
+                </c:pt>
+                <c:pt idx="680">
+                  <c:v>309.60219610864948</c:v>
+                </c:pt>
+                <c:pt idx="681">
+                  <c:v>311.52860720477747</c:v>
+                </c:pt>
+                <c:pt idx="682">
+                  <c:v>305.74937391639372</c:v>
+                </c:pt>
+                <c:pt idx="683">
+                  <c:v>305.74937391639372</c:v>
+                </c:pt>
+                <c:pt idx="684">
+                  <c:v>309.60219610864948</c:v>
+                </c:pt>
+                <c:pt idx="685">
+                  <c:v>306.71257946445769</c:v>
+                </c:pt>
+                <c:pt idx="686">
+                  <c:v>311.52860720477747</c:v>
+                </c:pt>
+                <c:pt idx="687">
+                  <c:v>308.63899056058563</c:v>
+                </c:pt>
+                <c:pt idx="688">
+                  <c:v>315.38142939703329</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$D$3:$D$691</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="689"/>
+                <c:pt idx="0">
+                  <c:v>123.2215751919091</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>122.7903025557504</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>122.528857486162</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>122.7053887724653</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>122.94448810961021</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>122.8215865811713</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>123.42715593038881</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>126.2941134028838</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>131.68166949500011</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>131.8582007813034</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>131.2749771645293</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>131.05822355982781</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>132.2447819525751</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>133.91847731258969</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>136.47259453087631</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>139.37530517528069</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>139.21218132844351</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>138.5172290494522</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>138.68035289628941</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>138.3831546547915</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>138.49264874376439</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>138.46359929158791</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>138.51499447620779</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>138.52616734242949</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>139.7842320789959</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>142.40091734812421</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>144.75392297441971</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>147.45999117332181</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>147.0465951231179</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>146.59744590100451</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>146.93933560738941</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>146.40974174847949</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>146.60414962073759</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>146.57956931504981</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>148.93257494134531</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>151.87997705063671</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>154.2195752374661</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>156.5457659848295</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>155.74355419010959</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>155.63406010113661</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>155.47093625429949</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>155.33015813990571</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>155.23407149039889</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>154.9815647137878</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>159.2428958907542</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>163.3120537687069</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>166.74212369877679</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>165.89968958565859</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>165.63377536958151</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>165.3365771280836</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>165.40584889865829</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>171.9375064918795</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>176.57871512038449</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>178.57418902758479</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>182.21877798911191</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>185.39410656932651</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>188.29234806724219</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>190.4576495410127</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>189.44091871483559</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>189.01858437165441</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>188.92696686863621</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>188.69233667797999</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>188.43536075488029</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>188.37502727728301</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>188.2074342839571</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>188.24989117559971</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>187.9750386665452</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>187.99514982574431</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>187.95716208059039</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>187.92811262841391</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>188.0688907428077</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>190.51574844536569</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>198.26301388351061</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>202.019331507255</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>204.19804042049159</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>206.595737511674</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>209.06494094667551</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>211.0380691214323</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>211.30845248399811</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>212.40562794697161</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>213.9452489123255</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>217.87586324912871</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>219.83558398441949</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>222.1126141204073</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>223.88463070317309</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>225.69686960433711</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>226.62868664722899</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>230.38053512448471</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>233.9357411562379</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>237.71440451242569</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>236.44293233639331</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>239.75233531126861</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>245.7923867907337</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>249.58892673287619</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>249.83696436299849</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>253.56199796132199</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>255.93288017357241</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>260.31040915924473</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>259.65567919865151</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>262.81313119291133</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>266.33258405275512</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>270.84418743308811</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>272.93798256303961</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>272.3234749208446</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>275.81164375526748</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>278.9467500170839</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>283.0114387485479</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>287.00462113619278</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>292.73183236144962</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>295.80437057242432</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>298.17972193116327</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>304.03206925810349</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>305.9605059679734</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>305.90017249037612</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>304.42311957586389</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>303.8443651055785</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>306.85880441220019</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>314.56137838545823</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>317.38364439306622</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>319.01264828819387</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>325.4370463656864</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>330.20786024236349</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>336.26131916129469</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>340.50924289879498</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>342.93822401539819</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>348.78610219584982</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>353.40943423840002</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>357.64841968292302</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>361.60137975216969</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>359.5835601125259</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>365.65489561741191</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>372.07929369490438</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>369.0648543882827</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>367.14982511787889</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>375.33059776542677</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>386.21073489214371</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>382.72256605772083</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>383.2119375982324</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>388.50564161408619</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>394.66189090225743</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>403.61135674586001</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>400.92763427940139</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>399.69638442176722</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>398.45172712466689</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>397.98470131659872</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>397.45063831120018</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>397.01042738206422</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>396.74004401949838</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>396.38921602013619</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>396.0517954602401</c:v>
+                </c:pt>
+                <c:pt idx="150">
+                  <c:v>395.89760990638018</c:v>
+                </c:pt>
+                <c:pt idx="151">
+                  <c:v>395.8149306963395</c:v>
+                </c:pt>
+                <c:pt idx="152">
+                  <c:v>395.54454733377372</c:v>
+                </c:pt>
+                <c:pt idx="153">
+                  <c:v>395.40823836586873</c:v>
+                </c:pt>
+                <c:pt idx="154">
+                  <c:v>395.14232414979159</c:v>
+                </c:pt>
+                <c:pt idx="155">
+                  <c:v>394.97920030295438</c:v>
+                </c:pt>
+                <c:pt idx="156">
+                  <c:v>394.97696572971012</c:v>
+                </c:pt>
+                <c:pt idx="157">
+                  <c:v>394.70211322065558</c:v>
+                </c:pt>
+                <c:pt idx="158">
+                  <c:v>394.56133510626182</c:v>
+                </c:pt>
+                <c:pt idx="159">
+                  <c:v>394.42055699186812</c:v>
+                </c:pt>
+                <c:pt idx="160">
+                  <c:v>394.2306182660987</c:v>
+                </c:pt>
+                <c:pt idx="161">
+                  <c:v>394.44737187080023</c:v>
+                </c:pt>
+                <c:pt idx="162">
+                  <c:v>394.55239681328442</c:v>
+                </c:pt>
+                <c:pt idx="163">
+                  <c:v>394.13453161659191</c:v>
+                </c:pt>
+                <c:pt idx="164">
+                  <c:v>393.96693862326589</c:v>
+                </c:pt>
+                <c:pt idx="165">
+                  <c:v>393.85297538780429</c:v>
+                </c:pt>
+                <c:pt idx="166">
+                  <c:v>393.69878983394449</c:v>
+                </c:pt>
+                <c:pt idx="167">
+                  <c:v>393.63398720985862</c:v>
+                </c:pt>
+                <c:pt idx="168">
+                  <c:v>393.82839508211657</c:v>
+                </c:pt>
+                <c:pt idx="169">
+                  <c:v>393.66080208879072</c:v>
+                </c:pt>
+                <c:pt idx="170">
+                  <c:v>393.55577714630653</c:v>
+                </c:pt>
+                <c:pt idx="171">
+                  <c:v>393.42393732489012</c:v>
+                </c:pt>
+                <c:pt idx="172">
+                  <c:v>393.24740603858692</c:v>
+                </c:pt>
+                <c:pt idx="173">
+                  <c:v>393.28092463725199</c:v>
+                </c:pt>
+                <c:pt idx="174">
+                  <c:v>411.37873334320398</c:v>
+                </c:pt>
+                <c:pt idx="175">
+                  <c:v>419.7516792897656</c:v>
+                </c:pt>
+                <c:pt idx="176">
+                  <c:v>417.31822902667358</c:v>
+                </c:pt>
+                <c:pt idx="177">
+                  <c:v>416.13167063392632</c:v>
+                </c:pt>
+                <c:pt idx="178">
+                  <c:v>418.87796115122671</c:v>
+                </c:pt>
+                <c:pt idx="179">
+                  <c:v>428.06429175872978</c:v>
+                </c:pt>
+                <c:pt idx="180">
+                  <c:v>436.6070652718617</c:v>
+                </c:pt>
+                <c:pt idx="181">
+                  <c:v>436.18920007516908</c:v>
+                </c:pt>
+                <c:pt idx="182">
+                  <c:v>434.1356272636159</c:v>
+                </c:pt>
+                <c:pt idx="183">
+                  <c:v>433.54793450035311</c:v>
+                </c:pt>
+                <c:pt idx="184">
+                  <c:v>435.21269156739032</c:v>
+                </c:pt>
+                <c:pt idx="185">
+                  <c:v>439.92987568620299</c:v>
+                </c:pt>
+                <c:pt idx="186">
+                  <c:v>450.23796206236761</c:v>
+                </c:pt>
+                <c:pt idx="187">
+                  <c:v>455.21882582401309</c:v>
+                </c:pt>
+                <c:pt idx="188">
+                  <c:v>455.64116016719441</c:v>
+                </c:pt>
+                <c:pt idx="189">
+                  <c:v>457.26122576934472</c:v>
+                </c:pt>
+                <c:pt idx="190">
+                  <c:v>466.4788404022687</c:v>
+                </c:pt>
+                <c:pt idx="191">
+                  <c:v>474.48531633675771</c:v>
+                </c:pt>
+                <c:pt idx="192">
+                  <c:v>477.03049526206689</c:v>
+                </c:pt>
+                <c:pt idx="193">
+                  <c:v>475.30763929067678</c:v>
+                </c:pt>
+                <c:pt idx="194">
+                  <c:v>481.2180855219699</c:v>
+                </c:pt>
+                <c:pt idx="195">
+                  <c:v>479.97342822486962</c:v>
+                </c:pt>
+                <c:pt idx="196">
+                  <c:v>478.92988251976038</c:v>
+                </c:pt>
+                <c:pt idx="197">
+                  <c:v>478.31984402405408</c:v>
+                </c:pt>
+                <c:pt idx="198">
+                  <c:v>477.5533854012437</c:v>
+                </c:pt>
+                <c:pt idx="199">
+                  <c:v>477.02379154233392</c:v>
+                </c:pt>
+                <c:pt idx="200">
+                  <c:v>476.78916135167759</c:v>
+                </c:pt>
+                <c:pt idx="201">
+                  <c:v>476.3847035944512</c:v>
+                </c:pt>
+                <c:pt idx="202">
+                  <c:v>475.40372594018362</c:v>
+                </c:pt>
+                <c:pt idx="203">
+                  <c:v>475.58919551946423</c:v>
+                </c:pt>
+                <c:pt idx="204">
+                  <c:v>475.72550448736928</c:v>
+                </c:pt>
+                <c:pt idx="205">
+                  <c:v>475.22719465388042</c:v>
+                </c:pt>
+                <c:pt idx="206">
+                  <c:v>474.96128043780328</c:v>
+                </c:pt>
+                <c:pt idx="207">
+                  <c:v>475.25847867930122</c:v>
+                </c:pt>
+                <c:pt idx="208">
+                  <c:v>475.08641653948649</c:v>
+                </c:pt>
+                <c:pt idx="209">
+                  <c:v>474.9188235461607</c:v>
+                </c:pt>
+                <c:pt idx="210">
+                  <c:v>475.09982397895271</c:v>
+                </c:pt>
+                <c:pt idx="211">
+                  <c:v>474.85625549531898</c:v>
+                </c:pt>
+                <c:pt idx="212">
+                  <c:v>474.81826775016509</c:v>
+                </c:pt>
+                <c:pt idx="213">
+                  <c:v>474.4674397508029</c:v>
+                </c:pt>
+                <c:pt idx="214">
+                  <c:v>474.41157541969432</c:v>
+                </c:pt>
+                <c:pt idx="215">
+                  <c:v>473.93114217215998</c:v>
+                </c:pt>
+                <c:pt idx="216">
+                  <c:v>484.52972307008952</c:v>
+                </c:pt>
+                <c:pt idx="217">
+                  <c:v>497.81873015421058</c:v>
+                </c:pt>
+                <c:pt idx="218">
+                  <c:v>494.77747596865669</c:v>
+                </c:pt>
+                <c:pt idx="219">
+                  <c:v>498.22095333819283</c:v>
+                </c:pt>
+                <c:pt idx="220">
+                  <c:v>508.01508786815788</c:v>
+                </c:pt>
+                <c:pt idx="221">
+                  <c:v>516.3969721076968</c:v>
+                </c:pt>
+                <c:pt idx="222">
+                  <c:v>515.12996907815307</c:v>
+                </c:pt>
+                <c:pt idx="223">
+                  <c:v>513.57694067333318</c:v>
+                </c:pt>
+                <c:pt idx="224">
+                  <c:v>526.1419460262864</c:v>
+                </c:pt>
+                <c:pt idx="225">
+                  <c:v>530.9351056354069</c:v>
+                </c:pt>
+                <c:pt idx="226">
+                  <c:v>534.44562020227329</c:v>
+                </c:pt>
+                <c:pt idx="227">
+                  <c:v>532.54399837133553</c:v>
+                </c:pt>
+                <c:pt idx="228">
+                  <c:v>531.46916864080538</c:v>
+                </c:pt>
+                <c:pt idx="229">
+                  <c:v>534.09479220291109</c:v>
+                </c:pt>
+                <c:pt idx="230">
+                  <c:v>542.42304668458576</c:v>
+                </c:pt>
+                <c:pt idx="231">
+                  <c:v>546.62180981071049</c:v>
+                </c:pt>
+                <c:pt idx="232">
+                  <c:v>553.37692472836613</c:v>
+                </c:pt>
+                <c:pt idx="233">
+                  <c:v>551.07754885993484</c:v>
+                </c:pt>
+                <c:pt idx="234">
+                  <c:v>559.48177883191727</c:v>
+                </c:pt>
+                <c:pt idx="235">
+                  <c:v>563.78333232728187</c:v>
+                </c:pt>
+                <c:pt idx="236">
+                  <c:v>570.15856979339878</c:v>
+                </c:pt>
+                <c:pt idx="237">
+                  <c:v>569.3429505592128</c:v>
+                </c:pt>
+                <c:pt idx="238">
+                  <c:v>576.90698099132135</c:v>
+                </c:pt>
+                <c:pt idx="239">
+                  <c:v>585.31568010979254</c:v>
+                </c:pt>
+                <c:pt idx="240">
+                  <c:v>590.40827253365524</c:v>
+                </c:pt>
+                <c:pt idx="241">
+                  <c:v>594.16459015739952</c:v>
+                </c:pt>
+                <c:pt idx="242">
+                  <c:v>599.17673794446591</c:v>
+                </c:pt>
+                <c:pt idx="243">
+                  <c:v>607.73738804355241</c:v>
+                </c:pt>
+                <c:pt idx="244">
+                  <c:v>607.60554822213612</c:v>
+                </c:pt>
+                <c:pt idx="245">
+                  <c:v>617.19857116011019</c:v>
+                </c:pt>
+                <c:pt idx="246">
+                  <c:v>625.84413504248187</c:v>
+                </c:pt>
+                <c:pt idx="247">
+                  <c:v>623.48666026969761</c:v>
+                </c:pt>
+                <c:pt idx="248">
+                  <c:v>621.93363186487773</c:v>
+                </c:pt>
+                <c:pt idx="249">
+                  <c:v>636.11199910024823</c:v>
+                </c:pt>
+                <c:pt idx="250">
+                  <c:v>641.19118408464487</c:v>
+                </c:pt>
+                <c:pt idx="251">
+                  <c:v>636.95219864012199</c:v>
+                </c:pt>
+                <c:pt idx="252">
+                  <c:v>635.1176140065146</c:v>
+                </c:pt>
+                <c:pt idx="253">
+                  <c:v>631.61603773262561</c:v>
+                </c:pt>
+                <c:pt idx="254">
+                  <c:v>640.14540380629137</c:v>
+                </c:pt>
+                <c:pt idx="255">
+                  <c:v>647.23570471059872</c:v>
+                </c:pt>
+                <c:pt idx="256">
+                  <c:v>654.82208087515085</c:v>
+                </c:pt>
+                <c:pt idx="257">
+                  <c:v>653.28692905628566</c:v>
+                </c:pt>
+                <c:pt idx="258">
+                  <c:v>651.71155491902232</c:v>
+                </c:pt>
+                <c:pt idx="259">
+                  <c:v>650.26131688344219</c:v>
+                </c:pt>
+                <c:pt idx="260">
+                  <c:v>649.16861056695745</c:v>
+                </c:pt>
+                <c:pt idx="261">
+                  <c:v>657.88568079314814</c:v>
+                </c:pt>
+                <c:pt idx="262">
+                  <c:v>664.52012875560911</c:v>
+                </c:pt>
+                <c:pt idx="263">
+                  <c:v>670.66297060431407</c:v>
+                </c:pt>
+                <c:pt idx="264">
+                  <c:v>668.91776890048061</c:v>
+                </c:pt>
+                <c:pt idx="265">
+                  <c:v>666.64520791098153</c:v>
+                </c:pt>
+                <c:pt idx="266">
+                  <c:v>666.92452956652471</c:v>
+                </c:pt>
+                <c:pt idx="267">
+                  <c:v>679.49400406596658</c:v>
+                </c:pt>
+                <c:pt idx="268">
+                  <c:v>683.67935975262515</c:v>
+                </c:pt>
+                <c:pt idx="269">
+                  <c:v>685.10278290927306</c:v>
+                </c:pt>
+                <c:pt idx="270">
+                  <c:v>681.96767664745676</c:v>
+                </c:pt>
+                <c:pt idx="271">
+                  <c:v>680.80793313364154</c:v>
+                </c:pt>
+                <c:pt idx="272">
+                  <c:v>693.73047020569004</c:v>
+                </c:pt>
+                <c:pt idx="273">
+                  <c:v>695.65443776907125</c:v>
+                </c:pt>
+                <c:pt idx="274">
+                  <c:v>702.00286035625606</c:v>
+                </c:pt>
+                <c:pt idx="275">
+                  <c:v>702.19726822851408</c:v>
+                </c:pt>
+                <c:pt idx="276">
+                  <c:v>707.81275079155364</c:v>
+                </c:pt>
+                <c:pt idx="277">
+                  <c:v>708.82501247124196</c:v>
+                </c:pt>
+                <c:pt idx="278">
+                  <c:v>709.88196561581742</c:v>
+                </c:pt>
+                <c:pt idx="279">
+                  <c:v>718.67948047880452</c:v>
+                </c:pt>
+                <c:pt idx="280">
+                  <c:v>714.3421738115303</c:v>
+                </c:pt>
+                <c:pt idx="281">
+                  <c:v>717.60241617503004</c:v>
+                </c:pt>
+                <c:pt idx="282">
+                  <c:v>724.8759520853738</c:v>
+                </c:pt>
+                <c:pt idx="283">
+                  <c:v>734.8309758889319</c:v>
+                </c:pt>
+                <c:pt idx="284">
+                  <c:v>733.9617268968816</c:v>
+                </c:pt>
+                <c:pt idx="285">
+                  <c:v>740.09116130612051</c:v>
+                </c:pt>
+                <c:pt idx="286">
+                  <c:v>741.53693019521188</c:v>
+                </c:pt>
+                <c:pt idx="287">
+                  <c:v>746.16920053073954</c:v>
+                </c:pt>
+                <c:pt idx="288">
+                  <c:v>742.38606802806305</c:v>
+                </c:pt>
+                <c:pt idx="289">
+                  <c:v>747.88982192888534</c:v>
+                </c:pt>
+                <c:pt idx="290">
+                  <c:v>752.95113032732741</c:v>
+                </c:pt>
+                <c:pt idx="291">
+                  <c:v>759.44703474863888</c:v>
+                </c:pt>
+                <c:pt idx="292">
+                  <c:v>758.46158794788266</c:v>
+                </c:pt>
+                <c:pt idx="293">
+                  <c:v>757.25268382269189</c:v>
+                </c:pt>
+                <c:pt idx="294">
+                  <c:v>768.24008046513745</c:v>
+                </c:pt>
+                <c:pt idx="295">
+                  <c:v>769.63221959636451</c:v>
+                </c:pt>
+                <c:pt idx="296">
+                  <c:v>776.38733451402004</c:v>
+                </c:pt>
+                <c:pt idx="297">
+                  <c:v>777.69455986196203</c:v>
+                </c:pt>
+                <c:pt idx="298">
+                  <c:v>784.75357674084853</c:v>
+                </c:pt>
+                <c:pt idx="299">
+                  <c:v>790.60592406778881</c:v>
+                </c:pt>
+                <c:pt idx="300">
+                  <c:v>795.30076245415808</c:v>
+                </c:pt>
+                <c:pt idx="301">
+                  <c:v>795.52645435183695</c:v>
+                </c:pt>
+                <c:pt idx="302">
+                  <c:v>797.11523592856645</c:v>
+                </c:pt>
+                <c:pt idx="303">
+                  <c:v>801.00115880048281</c:v>
+                </c:pt>
+                <c:pt idx="304">
+                  <c:v>801.40561655770932</c:v>
+                </c:pt>
+                <c:pt idx="305">
+                  <c:v>799.48611814081676</c:v>
+                </c:pt>
+                <c:pt idx="306">
+                  <c:v>797.8749908316438</c:v>
+                </c:pt>
+                <c:pt idx="307">
+                  <c:v>807.03003741372629</c:v>
+                </c:pt>
+                <c:pt idx="308">
+                  <c:v>807.66242164187599</c:v>
+                </c:pt>
+                <c:pt idx="309">
+                  <c:v>813.4924232363727</c:v>
+                </c:pt>
+                <c:pt idx="310">
+                  <c:v>811.97961714995085</c:v>
+                </c:pt>
+                <c:pt idx="311">
+                  <c:v>814.658870469921</c:v>
+                </c:pt>
+                <c:pt idx="312">
+                  <c:v>819.89447558142172</c:v>
+                </c:pt>
+                <c:pt idx="313">
+                  <c:v>822.48434597161793</c:v>
+                </c:pt>
+                <c:pt idx="314">
+                  <c:v>829.78469676089378</c:v>
+                </c:pt>
+                <c:pt idx="315">
+                  <c:v>826.62277562014526</c:v>
+                </c:pt>
+                <c:pt idx="316">
+                  <c:v>831.53213303797179</c:v>
+                </c:pt>
+                <c:pt idx="317">
+                  <c:v>834.87282003826783</c:v>
+                </c:pt>
+                <c:pt idx="318">
+                  <c:v>841.08716823079192</c:v>
+                </c:pt>
+                <c:pt idx="319">
+                  <c:v>838.50623613357322</c:v>
+                </c:pt>
+                <c:pt idx="320">
+                  <c:v>847.08923196510329</c:v>
+                </c:pt>
+                <c:pt idx="321">
+                  <c:v>845.1161037903463</c:v>
+                </c:pt>
+                <c:pt idx="322">
+                  <c:v>851.90250273342281</c:v>
+                </c:pt>
+                <c:pt idx="323">
+                  <c:v>850.2600913988291</c:v>
+                </c:pt>
+                <c:pt idx="324">
+                  <c:v>848.20651858727581</c:v>
+                </c:pt>
+                <c:pt idx="325">
+                  <c:v>847.10487397781355</c:v>
+                </c:pt>
+                <c:pt idx="326">
+                  <c:v>845.922784731555</c:v>
+                </c:pt>
+                <c:pt idx="327">
+                  <c:v>844.8434858545362</c:v>
+                </c:pt>
+                <c:pt idx="328">
+                  <c:v>844.22450906585254</c:v>
+                </c:pt>
+                <c:pt idx="329">
+                  <c:v>843.36866751326841</c:v>
+                </c:pt>
+                <c:pt idx="330">
+                  <c:v>842.87482682626808</c:v>
+                </c:pt>
+                <c:pt idx="331">
+                  <c:v>842.6401966356118</c:v>
+                </c:pt>
+                <c:pt idx="332">
+                  <c:v>842.37428241953478</c:v>
+                </c:pt>
+                <c:pt idx="333">
+                  <c:v>841.69720672649817</c:v>
+                </c:pt>
+                <c:pt idx="334">
+                  <c:v>841.45810738935324</c:v>
+                </c:pt>
+                <c:pt idx="335">
+                  <c:v>841.27710695656128</c:v>
+                </c:pt>
+                <c:pt idx="336">
+                  <c:v>840.44808028290913</c:v>
+                </c:pt>
+                <c:pt idx="337">
+                  <c:v>840.94192096990946</c:v>
+                </c:pt>
+                <c:pt idx="338">
+                  <c:v>840.4793643083301</c:v>
+                </c:pt>
+                <c:pt idx="339">
+                  <c:v>840.12853630896791</c:v>
+                </c:pt>
+                <c:pt idx="340">
+                  <c:v>840.24249954442939</c:v>
+                </c:pt>
+                <c:pt idx="341">
+                  <c:v>839.70396739254227</c:v>
+                </c:pt>
+                <c:pt idx="342">
+                  <c:v>855.55826456117165</c:v>
+                </c:pt>
+                <c:pt idx="343">
+                  <c:v>864.40494003553442</c:v>
+                </c:pt>
+                <c:pt idx="344">
+                  <c:v>859.01738394341805</c:v>
+                </c:pt>
+                <c:pt idx="345">
+                  <c:v>863.14464072572366</c:v>
+                </c:pt>
+                <c:pt idx="346">
+                  <c:v>870.80699238058344</c:v>
+                </c:pt>
+                <c:pt idx="347">
+                  <c:v>877.08390862394924</c:v>
+                </c:pt>
+                <c:pt idx="348">
+                  <c:v>875.18675593950013</c:v>
+                </c:pt>
+                <c:pt idx="349">
+                  <c:v>875.12642246190285</c:v>
+                </c:pt>
+                <c:pt idx="350">
+                  <c:v>881.87706823306985</c:v>
+                </c:pt>
+                <c:pt idx="351">
+                  <c:v>887.80539105031767</c:v>
+                </c:pt>
+                <c:pt idx="352">
+                  <c:v>885.28255785745193</c:v>
+                </c:pt>
+                <c:pt idx="353">
+                  <c:v>891.1706583563016</c:v>
+                </c:pt>
+                <c:pt idx="354">
+                  <c:v>894.80630902485132</c:v>
+                </c:pt>
+                <c:pt idx="355">
+                  <c:v>898.69223189676768</c:v>
+                </c:pt>
+                <c:pt idx="356">
+                  <c:v>897.62187131272628</c:v>
+                </c:pt>
+                <c:pt idx="357">
+                  <c:v>902.21838847634444</c:v>
+                </c:pt>
+                <c:pt idx="358">
+                  <c:v>906.74339929614359</c:v>
+                </c:pt>
+                <c:pt idx="359">
+                  <c:v>908.35899575180508</c:v>
+                </c:pt>
+                <c:pt idx="360">
+                  <c:v>906.35458355162746</c:v>
+                </c:pt>
+                <c:pt idx="361">
+                  <c:v>912.83708053347289</c:v>
+                </c:pt>
+                <c:pt idx="362">
+                  <c:v>911.2482989567435</c:v>
+                </c:pt>
+                <c:pt idx="363">
+                  <c:v>919.50057794811039</c:v>
+                </c:pt>
+                <c:pt idx="364">
+                  <c:v>919.50281252135483</c:v>
+                </c:pt>
+                <c:pt idx="365">
+                  <c:v>916.79227517596405</c:v>
+                </c:pt>
+                <c:pt idx="366">
+                  <c:v>923.40884655247021</c:v>
+                </c:pt>
+                <c:pt idx="367">
+                  <c:v>929.98966475706698</c:v>
+                </c:pt>
+                <c:pt idx="368">
+                  <c:v>932.64657234459344</c:v>
+                </c:pt>
+                <c:pt idx="369">
+                  <c:v>927.32158430331879</c:v>
+                </c:pt>
+                <c:pt idx="370">
+                  <c:v>933.32588261087449</c:v>
+                </c:pt>
+                <c:pt idx="371">
+                  <c:v>940.88544389649439</c:v>
+                </c:pt>
+                <c:pt idx="372">
+                  <c:v>942.17926180497022</c:v>
+                </c:pt>
+                <c:pt idx="373">
+                  <c:v>943.81273484658652</c:v>
+                </c:pt>
+                <c:pt idx="374">
+                  <c:v>950.84940599302968</c:v>
+                </c:pt>
+                <c:pt idx="375">
+                  <c:v>950.69968958565858</c:v>
+                </c:pt>
+                <c:pt idx="376">
+                  <c:v>946.22830852372374</c:v>
+                </c:pt>
+                <c:pt idx="377">
+                  <c:v>953.45715296918058</c:v>
+                </c:pt>
+                <c:pt idx="378">
+                  <c:v>959.75641494498984</c:v>
+                </c:pt>
+                <c:pt idx="379">
+                  <c:v>958.94973400378115</c:v>
+                </c:pt>
+                <c:pt idx="380">
+                  <c:v>955.99339360151248</c:v>
+                </c:pt>
+                <c:pt idx="381">
+                  <c:v>963.04794133391033</c:v>
+                </c:pt>
+                <c:pt idx="382">
+                  <c:v>970.44661334593729</c:v>
+                </c:pt>
+                <c:pt idx="383">
+                  <c:v>966.58750535295314</c:v>
+                </c:pt>
+                <c:pt idx="384">
+                  <c:v>962.92950895196009</c:v>
+                </c:pt>
+                <c:pt idx="385">
+                  <c:v>961.51055494180082</c:v>
+                </c:pt>
+                <c:pt idx="386">
+                  <c:v>959.82345214232021</c:v>
+                </c:pt>
+                <c:pt idx="387">
+                  <c:v>966.06461521377628</c:v>
+                </c:pt>
+                <c:pt idx="388">
+                  <c:v>974.42862286736056</c:v>
+                </c:pt>
+                <c:pt idx="389">
+                  <c:v>979.34244943167573</c:v>
+                </c:pt>
+                <c:pt idx="390">
+                  <c:v>976.97603636591407</c:v>
+                </c:pt>
+                <c:pt idx="391">
+                  <c:v>985.62606939477462</c:v>
+                </c:pt>
+                <c:pt idx="392">
+                  <c:v>992.04152917928968</c:v>
+                </c:pt>
+                <c:pt idx="393">
+                  <c:v>983.95013946151562</c:v>
+                </c:pt>
+                <c:pt idx="394">
+                  <c:v>992.41693748433966</c:v>
+                </c:pt>
+                <c:pt idx="395">
+                  <c:v>993.0269759800459</c:v>
+                </c:pt>
+                <c:pt idx="396">
+                  <c:v>996.13079821644146</c:v>
+                </c:pt>
+                <c:pt idx="397">
+                  <c:v>995.76209363112446</c:v>
+                </c:pt>
+                <c:pt idx="398">
+                  <c:v>1002.298220370834</c:v>
+                </c:pt>
+                <c:pt idx="399">
+                  <c:v>1001.942923224983</c:v>
+                </c:pt>
+                <c:pt idx="400">
+                  <c:v>1007.263442119769</c:v>
+                </c:pt>
+                <c:pt idx="401">
+                  <c:v>1001.16976088244</c:v>
+                </c:pt>
+                <c:pt idx="402">
+                  <c:v>1011.446563233184</c:v>
+                </c:pt>
+                <c:pt idx="403">
+                  <c:v>1008.101407086399</c:v>
+                </c:pt>
+                <c:pt idx="404">
+                  <c:v>1005.8288460969</c:v>
+                </c:pt>
+                <c:pt idx="405">
+                  <c:v>1004.51268245598</c:v>
+                </c:pt>
+                <c:pt idx="406">
+                  <c:v>1003.366346381631</c:v>
+                </c:pt>
+                <c:pt idx="407">
+                  <c:v>1002.8725056946309</c:v>
+                </c:pt>
+                <c:pt idx="408">
+                  <c:v>1002.114985364798</c:v>
+                </c:pt>
+                <c:pt idx="409">
+                  <c:v>1012.360503690121</c:v>
+                </c:pt>
+                <c:pt idx="410">
+                  <c:v>1021.0328824514251</c:v>
+                </c:pt>
+                <c:pt idx="411">
+                  <c:v>1023.07751697</c:v>
+                </c:pt>
+                <c:pt idx="412">
+                  <c:v>1024.487532687182</c:v>
+                </c:pt>
+                <c:pt idx="413">
+                  <c:v>1031.7655377440151</c:v>
+                </c:pt>
+                <c:pt idx="414">
+                  <c:v>1031.62922877611</c:v>
+                </c:pt>
+                <c:pt idx="415">
+                  <c:v>1033.378899626432</c:v>
+                </c:pt>
+                <c:pt idx="416">
+                  <c:v>1034.3598772806999</c:v>
+                </c:pt>
+                <c:pt idx="417">
+                  <c:v>1041.445709038519</c:v>
+                </c:pt>
+                <c:pt idx="418">
+                  <c:v>1037.063710906358</c:v>
+                </c:pt>
+                <c:pt idx="419">
+                  <c:v>1035.993350322316</c:v>
+                </c:pt>
+                <c:pt idx="420">
+                  <c:v>1039.9954710029381</c:v>
+                </c:pt>
+                <c:pt idx="421">
+                  <c:v>1050.656619951709</c:v>
+                </c:pt>
+                <c:pt idx="422">
+                  <c:v>1042.2255751007949</c:v>
+                </c:pt>
+                <c:pt idx="423">
+                  <c:v>1038.8804189540101</c:v>
+                </c:pt>
+                <c:pt idx="424">
+                  <c:v>1037.1307481036879</c:v>
+                </c:pt>
+                <c:pt idx="425">
+                  <c:v>1042.268031992437</c:v>
+                </c:pt>
+                <c:pt idx="426">
+                  <c:v>1050.1314952392879</c:v>
+                </c:pt>
+                <c:pt idx="427">
+                  <c:v>1049.3650366164779</c:v>
+                </c:pt>
+                <c:pt idx="428">
+                  <c:v>1051.838709197968</c:v>
+                </c:pt>
+                <c:pt idx="429">
+                  <c:v>1053.4051450422539</c:v>
+                </c:pt>
+                <c:pt idx="430">
+                  <c:v>1054.7257778296621</c:v>
+                </c:pt>
+                <c:pt idx="431">
+                  <c:v>1053.8073682262359</c:v>
+                </c:pt>
+                <c:pt idx="432">
+                  <c:v>1052.7236002027289</c:v>
+                </c:pt>
+                <c:pt idx="433">
+                  <c:v>1056.560362463269</c:v>
+                </c:pt>
+                <c:pt idx="434">
+                  <c:v>1058.8552691852119</c:v>
+                </c:pt>
+                <c:pt idx="435">
+                  <c:v>1059.8854074508549</c:v>
+                </c:pt>
+                <c:pt idx="436">
+                  <c:v>1062.233943930662</c:v>
+                </c:pt>
+                <c:pt idx="437">
+                  <c:v>1064.1445040545771</c:v>
+                </c:pt>
+                <c:pt idx="438">
+                  <c:v>1068.673984020865</c:v>
+                </c:pt>
+                <c:pt idx="439">
+                  <c:v>1067.9745625953849</c:v>
+                </c:pt>
+                <c:pt idx="440">
+                  <c:v>1069.2415656249291</c:v>
+                </c:pt>
+                <c:pt idx="441">
+                  <c:v>1072.644820676067</c:v>
+                </c:pt>
+                <c:pt idx="442">
+                  <c:v>1071.306311302704</c:v>
+                </c:pt>
+                <c:pt idx="443">
+                  <c:v>1076.582138732603</c:v>
+                </c:pt>
+                <c:pt idx="444">
+                  <c:v>1078.5731434933141</c:v>
+                </c:pt>
+                <c:pt idx="445">
+                  <c:v>1077.0469299674271</c:v>
+                </c:pt>
+                <c:pt idx="446">
+                  <c:v>1080.9596677182751</c:v>
+                </c:pt>
+                <c:pt idx="447">
+                  <c:v>1080.7384449670849</c:v>
+                </c:pt>
+                <c:pt idx="448">
+                  <c:v>1084.35621904968</c:v>
+                </c:pt>
+                <c:pt idx="449">
+                  <c:v>1081.4266935263429</c:v>
+                </c:pt>
+                <c:pt idx="450">
+                  <c:v>1086.6801752237991</c:v>
+                </c:pt>
+                <c:pt idx="451">
+                  <c:v>1086.6198417462019</c:v>
+                </c:pt>
+                <c:pt idx="452">
+                  <c:v>1081.1160878453791</c:v>
+                </c:pt>
+                <c:pt idx="453">
+                  <c:v>1079.433454192387</c:v>
+                </c:pt>
+                <c:pt idx="454">
+                  <c:v>1091.2521120817289</c:v>
+                </c:pt>
+                <c:pt idx="455">
+                  <c:v>1083.330549930525</c:v>
+                </c:pt>
+                <c:pt idx="456">
+                  <c:v>1086.532693389672</c:v>
+                </c:pt>
+                <c:pt idx="457">
+                  <c:v>1089.6454539190449</c:v>
+                </c:pt>
+                <c:pt idx="458">
+                  <c:v>1087.886844775745</c:v>
+                </c:pt>
+                <c:pt idx="459">
+                  <c:v>1086.8477682171249</c:v>
+                </c:pt>
+                <c:pt idx="460">
+                  <c:v>1090.291245586661</c:v>
+                </c:pt>
+                <c:pt idx="461">
+                  <c:v>1091.4733348329189</c:v>
+                </c:pt>
+                <c:pt idx="462">
+                  <c:v>1090.4208508348329</c:v>
+                </c:pt>
+                <c:pt idx="463">
+                  <c:v>1092.1883982711099</c:v>
+                </c:pt>
+                <c:pt idx="464">
+                  <c:v>1092.373867850391</c:v>
+                </c:pt>
+                <c:pt idx="465">
+                  <c:v>1093.3682529441239</c:v>
+                </c:pt>
+                <c:pt idx="466">
+                  <c:v>1093.607352281269</c:v>
+                </c:pt>
+                <c:pt idx="467">
+                  <c:v>1094.704527744243</c:v>
+                </c:pt>
+                <c:pt idx="468">
+                  <c:v>1096.5525198173159</c:v>
+                </c:pt>
+                <c:pt idx="469">
+                  <c:v>1097.220657217375</c:v>
+                </c:pt>
+                <c:pt idx="470">
+                  <c:v>1097.540201191317</c:v>
+                </c:pt>
+                <c:pt idx="471">
+                  <c:v>1101.738964317442</c:v>
+                </c:pt>
+                <c:pt idx="472">
+                  <c:v>1102.711003678731</c:v>
+                </c:pt>
+                <c:pt idx="473">
+                  <c:v>1102.865189232592</c:v>
+                </c:pt>
+                <c:pt idx="474">
+                  <c:v>1102.6082133094919</c:v>
+                </c:pt>
+                <c:pt idx="475">
+                  <c:v>1102.731114837931</c:v>
+                </c:pt>
+                <c:pt idx="476">
+                  <c:v>1103.87745091228</c:v>
+                </c:pt>
+                <c:pt idx="477">
+                  <c:v>1105.2829974829731</c:v>
+                </c:pt>
+                <c:pt idx="478">
+                  <c:v>1104.6997738661989</c:v>
+                </c:pt>
+                <c:pt idx="479">
+                  <c:v>1112.9743985900091</c:v>
+                </c:pt>
+                <c:pt idx="480">
+                  <c:v>1112.3598909478139</c:v>
+                </c:pt>
+                <c:pt idx="481">
+                  <c:v>1111.441481344388</c:v>
+                </c:pt>
+                <c:pt idx="482">
+                  <c:v>1114.147549543291</c:v>
+                </c:pt>
+                <c:pt idx="483">
+                  <c:v>1117.0502601876949</c:v>
+                </c:pt>
+                <c:pt idx="484">
+                  <c:v>1118.2055345550209</c:v>
+                </c:pt>
+                <c:pt idx="485">
+                  <c:v>1116.5050243160749</c:v>
+                </c:pt>
+                <c:pt idx="486">
+                  <c:v>1120.87361500877</c:v>
+                </c:pt>
+                <c:pt idx="487">
+                  <c:v>1123.0299781895631</c:v>
+                </c:pt>
+                <c:pt idx="488">
+                  <c:v>1124.708142696066</c:v>
+                </c:pt>
+                <c:pt idx="489">
+                  <c:v>1123.3696333227031</c:v>
+                </c:pt>
+                <c:pt idx="490">
+                  <c:v>1126.781826666818</c:v>
+                </c:pt>
+                <c:pt idx="491">
+                  <c:v>1127.449964066878</c:v>
+                </c:pt>
+                <c:pt idx="492">
+                  <c:v>1128.6633373385571</c:v>
+                </c:pt>
+                <c:pt idx="493">
+                  <c:v>1126.8957899022801</c:v>
+                </c:pt>
+                <c:pt idx="494">
+                  <c:v>1132.9447796747229</c:v>
+                </c:pt>
+                <c:pt idx="495">
+                  <c:v>1134.649759060158</c:v>
+                </c:pt>
+                <c:pt idx="496">
+                  <c:v>1133.9503376346779</c:v>
+                </c:pt>
+                <c:pt idx="497">
+                  <c:v>1135.127957734448</c:v>
+                </c:pt>
+                <c:pt idx="498">
+                  <c:v>1136.8731594382821</c:v>
+                </c:pt>
+                <c:pt idx="499">
+                  <c:v>1132.620766554292</c:v>
+                </c:pt>
+                <c:pt idx="500">
+                  <c:v>1130.450995934033</c:v>
+                </c:pt>
+                <c:pt idx="501">
+                  <c:v>1136.915616329924</c:v>
+                </c:pt>
+                <c:pt idx="502">
+                  <c:v>1137.208345424933</c:v>
+                </c:pt>
+                <c:pt idx="503">
+                  <c:v>1142.582494077584</c:v>
+                </c:pt>
+                <c:pt idx="504">
+                  <c:v>1145.5075504544311</c:v>
+                </c:pt>
+                <c:pt idx="505">
+                  <c:v>1145.987983701966</c:v>
+                </c:pt>
+                <c:pt idx="506">
+                  <c:v>1146.3790340197261</c:v>
+                </c:pt>
+                <c:pt idx="507">
+                  <c:v>1146.3544537140381</c:v>
+                </c:pt>
+                <c:pt idx="508">
+                  <c:v>1149.4940291223429</c:v>
+                </c:pt>
+                <c:pt idx="509">
+                  <c:v>1149.156608562447</c:v>
+                </c:pt>
+                <c:pt idx="510">
+                  <c:v>1152.3140605567071</c:v>
+                </c:pt>
+                <c:pt idx="511">
+                  <c:v>1154.546399227808</c:v>
+                </c:pt>
+                <c:pt idx="512">
+                  <c:v>1156.2826626386641</c:v>
+                </c:pt>
+                <c:pt idx="513">
+                  <c:v>1154.60896727865</c:v>
+                </c:pt>
+                <c:pt idx="514">
+                  <c:v>1159.4289417667021</c:v>
+                </c:pt>
+                <c:pt idx="515">
+                  <c:v>1162.9394563335691</c:v>
+                </c:pt>
+                <c:pt idx="516">
+                  <c:v>1162.9863823717001</c:v>
+                </c:pt>
+                <c:pt idx="517">
+                  <c:v>1163.3193337851069</c:v>
+                </c:pt>
+                <c:pt idx="518">
+                  <c:v>1165.417598061548</c:v>
+                </c:pt>
+                <c:pt idx="519">
+                  <c:v>1165.455585806701</c:v>
+                </c:pt>
+                <c:pt idx="520">
+                  <c:v>1166.476785779367</c:v>
+                </c:pt>
+                <c:pt idx="521">
+                  <c:v>1163.9137302681031</c:v>
+                </c:pt>
+                <c:pt idx="522">
+                  <c:v>1163.545025682786</c:v>
+                </c:pt>
+                <c:pt idx="523">
+                  <c:v>1163.484692205189</c:v>
+                </c:pt>
+                <c:pt idx="524">
+                  <c:v>1165.877920149883</c:v>
+                </c:pt>
+                <c:pt idx="525">
+                  <c:v>1169.947078027835</c:v>
+                </c:pt>
+                <c:pt idx="526">
+                  <c:v>1164.6578431584701</c:v>
+                </c:pt>
+                <c:pt idx="527">
+                  <c:v>1165.2142518963119</c:v>
+                </c:pt>
+                <c:pt idx="528">
+                  <c:v>1167.951604120635</c:v>
+                </c:pt>
+                <c:pt idx="529">
+                  <c:v>1167.4935166055441</c:v>
+                </c:pt>
+                <c:pt idx="530">
+                  <c:v>1168.4879016992779</c:v>
+                </c:pt>
+                <c:pt idx="531">
+                  <c:v>1168.6286798136721</c:v>
+                </c:pt>
+                <c:pt idx="532">
+                  <c:v>1168.2063454704901</c:v>
+                </c:pt>
+                <c:pt idx="533">
+                  <c:v>1168.400753342748</c:v>
+                </c:pt>
+                <c:pt idx="534">
+                  <c:v>1169.2074342839569</c:v>
+                </c:pt>
+                <c:pt idx="535">
+                  <c:v>1166.765045727888</c:v>
+                </c:pt>
+                <c:pt idx="536">
+                  <c:v>1165.2388322019999</c:v>
+                </c:pt>
+                <c:pt idx="537">
+                  <c:v>1164.3338300380401</c:v>
+                </c:pt>
+                <c:pt idx="538">
+                  <c:v>1168.1929380310239</c:v>
+                </c:pt>
+                <c:pt idx="539">
+                  <c:v>1170.2286342566231</c:v>
+                </c:pt>
+                <c:pt idx="540">
+                  <c:v>1169.922497722147</c:v>
+                </c:pt>
+                <c:pt idx="541">
+                  <c:v>1171.721329183845</c:v>
+                </c:pt>
+                <c:pt idx="542">
+                  <c:v>1173.0911225826289</c:v>
+                </c:pt>
+                <c:pt idx="543">
+                  <c:v>1174.577113790119</c:v>
+                </c:pt>
+                <c:pt idx="544">
+                  <c:v>1175.2810043620871</c:v>
+                </c:pt>
+                <c:pt idx="545">
+                  <c:v>1175.3636835721279</c:v>
+                </c:pt>
+                <c:pt idx="546">
+                  <c:v>1173.1358140475161</c:v>
+                </c:pt>
+                <c:pt idx="547">
+                  <c:v>1177.053020944853</c:v>
+                </c:pt>
+                <c:pt idx="548">
+                  <c:v>1176.1077964624949</c:v>
+                </c:pt>
+                <c:pt idx="549">
+                  <c:v>1176.1010927427619</c:v>
+                </c:pt>
+                <c:pt idx="550">
+                  <c:v>1177.394910651238</c:v>
+                </c:pt>
+                <c:pt idx="551">
+                  <c:v>1177.2094410719569</c:v>
+                </c:pt>
+                <c:pt idx="552">
+                  <c:v>1177.1044161294731</c:v>
+                </c:pt>
+                <c:pt idx="553">
+                  <c:v>1177.1468730211161</c:v>
+                </c:pt>
+                <c:pt idx="554">
+                  <c:v>1177.3189351609301</c:v>
+                </c:pt>
+                <c:pt idx="555">
+                  <c:v>1179.953497016013</c:v>
+                </c:pt>
+                <c:pt idx="556">
+                  <c:v>1177.5289850458989</c:v>
+                </c:pt>
+                <c:pt idx="557">
+                  <c:v>1179.913274697615</c:v>
+                </c:pt>
+                <c:pt idx="558">
+                  <c:v>1177.023971492677</c:v>
+                </c:pt>
+                <c:pt idx="559">
+                  <c:v>1174.9122997767699</c:v>
+                </c:pt>
+                <c:pt idx="560">
+                  <c:v>1173.868754071661</c:v>
+                </c:pt>
+                <c:pt idx="561">
+                  <c:v>1172.941406175258</c:v>
+                </c:pt>
+                <c:pt idx="562">
+                  <c:v>1178.9993342406781</c:v>
+                </c:pt>
+                <c:pt idx="563">
+                  <c:v>1179.019445399877</c:v>
+                </c:pt>
+                <c:pt idx="564">
+                  <c:v>1178.9903959477001</c:v>
+                </c:pt>
+                <c:pt idx="565">
+                  <c:v>1179.761323716999</c:v>
+                </c:pt>
+                <c:pt idx="566">
+                  <c:v>1177.7479732238439</c:v>
+                </c:pt>
+                <c:pt idx="567">
+                  <c:v>1176.507785073233</c:v>
+                </c:pt>
+                <c:pt idx="568">
+                  <c:v>1183.6606540283819</c:v>
+                </c:pt>
+                <c:pt idx="569">
+                  <c:v>1184.431581797681</c:v>
+                </c:pt>
+                <c:pt idx="570">
+                  <c:v>1184.59023649803</c:v>
+                </c:pt>
+                <c:pt idx="571">
+                  <c:v>1186.523142354388</c:v>
+                </c:pt>
+                <c:pt idx="572">
+                  <c:v>1181.8372422609959</c:v>
+                </c:pt>
+                <c:pt idx="573">
+                  <c:v>1180.181423486936</c:v>
+                </c:pt>
+                <c:pt idx="574">
+                  <c:v>1186.865032060773</c:v>
+                </c:pt>
+                <c:pt idx="575">
+                  <c:v>1186.4739817430129</c:v>
+                </c:pt>
+                <c:pt idx="576">
+                  <c:v>1186.6594513222931</c:v>
+                </c:pt>
+                <c:pt idx="577">
+                  <c:v>1187.8504788615289</c:v>
+                </c:pt>
+                <c:pt idx="578">
+                  <c:v>1190.0917558256081</c:v>
+                </c:pt>
+                <c:pt idx="579">
+                  <c:v>1187.340996161819</c:v>
+                </c:pt>
+                <c:pt idx="580">
+                  <c:v>1190.8917330470831</c:v>
+                </c:pt>
+                <c:pt idx="581">
+                  <c:v>1190.8760910343731</c:v>
+                </c:pt>
+                <c:pt idx="582">
+                  <c:v>1195.378756121728</c:v>
+                </c:pt>
+                <c:pt idx="583">
+                  <c:v>1191.5419938611881</c:v>
+                </c:pt>
+                <c:pt idx="584">
+                  <c:v>1195.61115173914</c:v>
+                </c:pt>
+                <c:pt idx="585">
+                  <c:v>1197.9060584610829</c:v>
+                </c:pt>
+                <c:pt idx="586">
+                  <c:v>1200.3618544566179</c:v>
+                </c:pt>
+                <c:pt idx="587">
+                  <c:v>1197.052451481743</c:v>
+                </c:pt>
+                <c:pt idx="588">
+                  <c:v>1198.2747630464</c:v>
+                </c:pt>
+                <c:pt idx="589">
+                  <c:v>1195.6402011913169</c:v>
+                </c:pt>
+                <c:pt idx="590">
+                  <c:v>1197.166414717205</c:v>
+                </c:pt>
+                <c:pt idx="591">
+                  <c:v>1198.12057749254</c:v>
+                </c:pt>
+                <c:pt idx="592">
+                  <c:v>1199.785334559577</c:v>
+                </c:pt>
+                <c:pt idx="593">
+                  <c:v>1200.7082133094921</c:v>
+                </c:pt>
+                <c:pt idx="594">
+                  <c:v>1201.3674124165741</c:v>
+                </c:pt>
+                <c:pt idx="595">
+                  <c:v>1201.561820288832</c:v>
+                </c:pt>
+                <c:pt idx="596">
+                  <c:v>1200.4869905583021</c:v>
+                </c:pt>
+                <c:pt idx="597">
+                  <c:v>1202.652292032072</c:v>
+                </c:pt>
+                <c:pt idx="598">
+                  <c:v>1205.014235951345</c:v>
+                </c:pt>
+                <c:pt idx="599">
+                  <c:v>1205.25333528849</c:v>
+                </c:pt>
+                <c:pt idx="600">
+                  <c:v>1203.329367725109</c:v>
+                </c:pt>
+                <c:pt idx="601">
+                  <c:v>1206.321461299287</c:v>
+                </c:pt>
+                <c:pt idx="602">
+                  <c:v>1207.4365133482149</c:v>
+                </c:pt>
+                <c:pt idx="603">
+                  <c:v>1205.2622735814671</c:v>
+                </c:pt>
+                <c:pt idx="604">
+                  <c:v>1202.489168185235</c:v>
+                </c:pt>
+                <c:pt idx="605">
+                  <c:v>1204.7483217352681</c:v>
+                </c:pt>
+                <c:pt idx="606">
+                  <c:v>1207.195179437826</c:v>
+                </c:pt>
+                <c:pt idx="607">
+                  <c:v>1206.4555356939479</c:v>
+                </c:pt>
+                <c:pt idx="608">
+                  <c:v>1207.4365133482149</c:v>
+                </c:pt>
+                <c:pt idx="609">
+                  <c:v>1206.2097326370699</c:v>
+                </c:pt>
+                <c:pt idx="610">
+                  <c:v>1204.531568130566</c:v>
+                </c:pt>
+                <c:pt idx="611">
+                  <c:v>1205.2622735814671</c:v>
+                </c:pt>
+                <c:pt idx="612">
+                  <c:v>1206.824240279265</c:v>
+                </c:pt>
+                <c:pt idx="613">
+                  <c:v>1208.3325772191979</c:v>
+                </c:pt>
+                <c:pt idx="614">
+                  <c:v>1208.0800704425869</c:v>
+                </c:pt>
+                <c:pt idx="615">
+                  <c:v>1206.82200570602</c:v>
+                </c:pt>
+                <c:pt idx="616">
+                  <c:v>1209.143727306895</c:v>
+                </c:pt>
+                <c:pt idx="617">
+                  <c:v>1209.9548773945919</c:v>
+                </c:pt>
+                <c:pt idx="618">
+                  <c:v>1210.176100145783</c:v>
+                </c:pt>
+                <c:pt idx="619">
+                  <c:v>1209.204060784492</c:v>
+                </c:pt>
+                <c:pt idx="620">
+                  <c:v>1208.915800835972</c:v>
+                </c:pt>
+                <c:pt idx="621">
+                  <c:v>1208.381737830573</c:v>
+                </c:pt>
+                <c:pt idx="622">
+                  <c:v>1209.2197027972029</c:v>
+                </c:pt>
+                <c:pt idx="623">
+                  <c:v>1210.1917421584931</c:v>
+                </c:pt>
+                <c:pt idx="624">
+                  <c:v>1209.12585072094</c:v>
+                </c:pt>
+                <c:pt idx="625">
+                  <c:v>1208.3638612446191</c:v>
+                </c:pt>
+                <c:pt idx="626">
+                  <c:v>1210.2744213685339</c:v>
+                </c:pt>
+                <c:pt idx="627">
+                  <c:v>1209.418579815949</c:v>
+                </c:pt>
+                <c:pt idx="628">
+                  <c:v>1209.318024019954</c:v>
+                </c:pt>
+                <c:pt idx="629">
+                  <c:v>1209.659913726339</c:v>
+                </c:pt>
+                <c:pt idx="630">
+                  <c:v>1209.22864109018</c:v>
+                </c:pt>
+                <c:pt idx="631">
+                  <c:v>1208.328108072709</c:v>
+                </c:pt>
+                <c:pt idx="632">
+                  <c:v>1205.9304109815271</c:v>
+                </c:pt>
+                <c:pt idx="633">
+                  <c:v>1206.2454858089791</c:v>
+                </c:pt>
+                <c:pt idx="634">
+                  <c:v>1207.3873527368401</c:v>
+                </c:pt>
+                <c:pt idx="635">
+                  <c:v>1208.270009168356</c:v>
+                </c:pt>
+                <c:pt idx="636">
+                  <c:v>1207.9415269014371</c:v>
+                </c:pt>
+                <c:pt idx="637">
+                  <c:v>1206.0488433634771</c:v>
+                </c:pt>
+                <c:pt idx="638">
+                  <c:v>1205.425397428304</c:v>
+                </c:pt>
+                <c:pt idx="639">
+                  <c:v>1205.0879768684081</c:v>
+                </c:pt>
+                <c:pt idx="640">
+                  <c:v>1203.096972107697</c:v>
+                </c:pt>
+                <c:pt idx="641">
+                  <c:v>1202.9651322862801</c:v>
+                </c:pt>
+                <c:pt idx="642">
+                  <c:v>1206.0555470832101</c:v>
+                </c:pt>
+                <c:pt idx="643">
+                  <c:v>1202.670168618027</c:v>
+                </c:pt>
+                <c:pt idx="644">
+                  <c:v>1203.6422079793169</c:v>
+                </c:pt>
+                <c:pt idx="645">
+                  <c:v>1203.1036758274299</c:v>
+                </c:pt>
+                <c:pt idx="646">
+                  <c:v>1203.651146272294</c:v>
+                </c:pt>
+                <c:pt idx="647">
+                  <c:v>1202.1740933577821</c:v>
+                </c:pt>
+                <c:pt idx="648">
+                  <c:v>1203.3159602856431</c:v>
+                </c:pt>
+                <c:pt idx="649">
+                  <c:v>1202.339451777864</c:v>
+                </c:pt>
+                <c:pt idx="650">
+                  <c:v>1200.7327936151789</c:v>
+                </c:pt>
+                <c:pt idx="651">
+                  <c:v>1200.8065345322429</c:v>
+                </c:pt>
+                <c:pt idx="652">
+                  <c:v>1197.5775761941641</c:v>
+                </c:pt>
+                <c:pt idx="653">
+                  <c:v>1195.6536086307831</c:v>
+                </c:pt>
+                <c:pt idx="654">
+                  <c:v>1196.9921180041461</c:v>
+                </c:pt>
+                <c:pt idx="655">
+                  <c:v>1195.412274720393</c:v>
+                </c:pt>
+                <c:pt idx="656">
+                  <c:v>1194.149740837338</c:v>
+                </c:pt>
+                <c:pt idx="657">
+                  <c:v>1193.262615259333</c:v>
+                </c:pt>
+                <c:pt idx="658">
+                  <c:v>1192.424650292704</c:v>
+                </c:pt>
+                <c:pt idx="659">
+                  <c:v>1192.0872297328081</c:v>
+                </c:pt>
+                <c:pt idx="660">
+                  <c:v>1191.5174135555001</c:v>
+                </c:pt>
+                <c:pt idx="661">
+                  <c:v>1190.996757989567</c:v>
+                </c:pt>
+                <c:pt idx="662">
+                  <c:v>1190.547608767454</c:v>
+                </c:pt>
+                <c:pt idx="663">
+                  <c:v>1190.156558449693</c:v>
+                </c:pt>
+                <c:pt idx="664">
+                  <c:v>1189.586742272385</c:v>
+                </c:pt>
+                <c:pt idx="665">
+                  <c:v>1189.0705558529421</c:v>
+                </c:pt>
+                <c:pt idx="666">
+                  <c:v>1188.5052088221221</c:v>
+                </c:pt>
+                <c:pt idx="667">
+                  <c:v>1188.574480592697</c:v>
+                </c:pt>
+                <c:pt idx="668">
+                  <c:v>1188.3621961344841</c:v>
+                </c:pt>
+                <c:pt idx="669">
+                  <c:v>1188.1677882622259</c:v>
+                </c:pt>
+                <c:pt idx="670">
+                  <c:v>1187.915281485615</c:v>
+                </c:pt>
+                <c:pt idx="671">
+                  <c:v>1187.6538364160269</c:v>
+                </c:pt>
+                <c:pt idx="672">
+                  <c:v>1187.669478428737</c:v>
+                </c:pt>
+                <c:pt idx="673">
+                  <c:v>1187.519762021366</c:v>
+                </c:pt>
+                <c:pt idx="674">
+                  <c:v>1187.14658828956</c:v>
+                </c:pt>
+                <c:pt idx="675">
+                  <c:v>1187.189045181203</c:v>
+                </c:pt>
+                <c:pt idx="676">
+                  <c:v>1186.5209077811439</c:v>
+                </c:pt>
+                <c:pt idx="677">
+                  <c:v>1186.389067959728</c:v>
+                </c:pt>
+                <c:pt idx="678">
+                  <c:v>1185.1488798091159</c:v>
+                </c:pt>
+                <c:pt idx="679">
+                  <c:v>1185.128768649917</c:v>
+                </c:pt>
+                <c:pt idx="680">
+                  <c:v>1184.9745830960569</c:v>
+                </c:pt>
+                <c:pt idx="681">
+                  <c:v>1184.91424961846</c:v>
+                </c:pt>
+                <c:pt idx="682">
+                  <c:v>1184.737718332156</c:v>
+                </c:pt>
+                <c:pt idx="683">
+                  <c:v>1184.628224243183</c:v>
+                </c:pt>
+                <c:pt idx="684">
+                  <c:v>1184.420408931459</c:v>
+                </c:pt>
+                <c:pt idx="685">
+                  <c:v>1184.342198867907</c:v>
+                </c:pt>
+                <c:pt idx="686">
+                  <c:v>1184.4829769823009</c:v>
+                </c:pt>
+                <c:pt idx="687">
+                  <c:v>1184.444989237147</c:v>
+                </c:pt>
+                <c:pt idx="688">
+                  <c:v>1184.3712483200841</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-D1D5-4F2D-A5B4-9FD726486478}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1323261951"/>
+        <c:axId val="1323260511"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1323261951"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="nl-NL"/>
+                  <a:t>Distance (mm)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="nl-NL"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="nl-NL"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1323260511"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1323260511"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="nl-NL"/>
+                  <a:t>Load (N)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="nl-NL"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="nl-NL"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1323261951"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="nl-NL"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -5061,20 +9659,536 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>371475</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>33337</xdr:rowOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>209551</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>57151</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>66675</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>109537</xdr:rowOff>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>504825</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>133351</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -5094,6 +10208,42 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>180974</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>23811</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Grafiek 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0B5B3DE2-F58D-39D0-2923-01238CA2289A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -5425,8 +10575,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A3:I691"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O20" sqref="O20"/>
+    <sheetView tabSelected="1" topLeftCell="A9" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
